--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Dropbox\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763BF63B-7214-476A-98C2-1F708402A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73B088-89AB-4E68-BDB9-B0B9FBAB2EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="660" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DA3BEE56-7180-4DED-92A5-8E032F415889}"/>
+    <workbookView xWindow="17844" yWindow="2676" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DA3BEE56-7180-4DED-92A5-8E032F415889}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="298">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -761,9 +761,6 @@
     <t>gefeiert wird der Friedensbringer Lucillus und seine Taten um das zerbrochene Kaiserreich wieder zu einigen</t>
   </si>
   <si>
-    <t>Eisland</t>
-  </si>
-  <si>
     <t>Sylvester</t>
   </si>
   <si>
@@ -782,9 +779,6 @@
     <t>der Start von ein neues Jahr</t>
   </si>
   <si>
-    <t>Tag der große Jagd</t>
-  </si>
-  <si>
     <t>Tag der Jaronson</t>
   </si>
   <si>
@@ -831,6 +825,117 @@
   </si>
   <si>
     <t>Feier von Endeldra und die Vereinigung von Yondalla</t>
+  </si>
+  <si>
+    <t>Tag der großen Jagd</t>
+  </si>
+  <si>
+    <t>Eisland, Nebelhain</t>
+  </si>
+  <si>
+    <t>27.06.</t>
+  </si>
+  <si>
+    <t>Rah Kari</t>
+  </si>
+  <si>
+    <t>01.01.</t>
+  </si>
+  <si>
+    <t>01.02.</t>
+  </si>
+  <si>
+    <t>01.03.</t>
+  </si>
+  <si>
+    <t>01.08.</t>
+  </si>
+  <si>
+    <t>01.04.</t>
+  </si>
+  <si>
+    <t>01.05.</t>
+  </si>
+  <si>
+    <t>01.06.</t>
+  </si>
+  <si>
+    <t>01.07.</t>
+  </si>
+  <si>
+    <t>Tag des Kriegers</t>
+  </si>
+  <si>
+    <t>Tag des Bauers</t>
+  </si>
+  <si>
+    <t>Tag des Handwerks</t>
+  </si>
+  <si>
+    <t>Tag der Pferdezüchter</t>
+  </si>
+  <si>
+    <t>Tag der Heiler</t>
+  </si>
+  <si>
+    <t>Tag der Künstler</t>
+  </si>
+  <si>
+    <t>Tag der Händler</t>
+  </si>
+  <si>
+    <t>Tag der Hüter</t>
+  </si>
+  <si>
+    <t>Himmelswanderung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an diesem Tag findet eine Wanderung statt, mit dem Ziel von H'abunaptra. Auf dem Weg werden zeremonielle Kerzen in die Luft gebracht, welche die Seelen von die gestorbenen in Habunaptra den Weg yurück nach Hause leuchten soll, damit sie die Möglichkeit haben ein Abend mit ihre geliebten zu verbringen. </t>
+  </si>
+  <si>
+    <t>Ramptundra</t>
+  </si>
+  <si>
+    <t>17.10.</t>
+  </si>
+  <si>
+    <t>11.11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rah Kari </t>
+  </si>
+  <si>
+    <t>die Rah Karische Bevölkerung nehmen an teil an sensorischer Entbehrung und essen oder trinken an diesem Tag nicht, damit sie alle ihre irische Bedürfnisse loswerden können. Dies soll damit helfen, ihrer Verbindung zu ihren Götter zu versterken.</t>
+  </si>
+  <si>
+    <t>Tag der Münze</t>
+  </si>
+  <si>
+    <t>Himmelsspitzen-Gebirge</t>
+  </si>
+  <si>
+    <t>12.13.</t>
+  </si>
+  <si>
+    <t>An diesem Tag können die Zwerge ihre wirtschaftlichen Fähigkeiten und ihren Reichtum zeigen, fast wie ein Wettbewerb, um zu zeigen, wer im letzten Jahr die größten Erfolge erzielt hat</t>
+  </si>
+  <si>
+    <t>10.01.</t>
+  </si>
+  <si>
+    <t>Reichhambru</t>
+  </si>
+  <si>
+    <t>Um die Zwerge dazu zu zwingen, ein möglichst großes Kaufrausch zu bekommen, wird ein Großteil aller Zwergenwaren im Sonderangebot angeboten. Dies ist also der Tag, an dem der Geldverkehr am höchsten ist</t>
+  </si>
+  <si>
+    <t>Spalhambru</t>
+  </si>
+  <si>
+    <t>10.06.</t>
+  </si>
+  <si>
+    <t>an diesem Tag wird kein einziges Cent von die Zwerge ausgegeben.</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1054,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -978,6 +1083,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3496,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36AD97F-2875-4ABD-880F-F339EA786665}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3563,13 +3669,13 @@
         <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3582,7 +3688,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>227</v>
@@ -3607,10 +3713,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
         <v>241</v>
-      </c>
-      <c r="B9" t="s">
-        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>235</v>
@@ -3635,13 +3741,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -3649,69 +3755,230 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" t="s">
         <v>247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" t="s">
         <v>256</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
         <v>260</v>
       </c>
-      <c r="D15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" t="s">
-        <v>262</v>
-      </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -2,47 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\Dropbox\Rpg\###Orbis\BookdownData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73B088-89AB-4E68-BDB9-B0B9FBAB2EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFB623-B665-41D5-AE04-B9041AB29885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17844" yWindow="2676" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DA3BEE56-7180-4DED-92A5-8E032F415889}"/>
+    <workbookView xWindow="-29010" yWindow="8010" windowWidth="29220" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
     <sheet name="Feiertage" sheetId="5" r:id="rId2"/>
-    <sheet name="Gruppenskills" sheetId="2" r:id="rId3"/>
-    <sheet name="TrankeBookdown" sheetId="4" r:id="rId4"/>
+    <sheet name="Eigenschaften" sheetId="6" r:id="rId3"/>
+    <sheet name="Gruppenskills" sheetId="2" r:id="rId4"/>
+    <sheet name="TrankeBookdown" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Itemliste">'[1]Itemliste_ not_updated'!$A$2:$A$388</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="357">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -936,6 +932,183 @@
   </si>
   <si>
     <t>an diesem Tag wird kein einziges Cent von die Zwerge ausgegeben.</t>
+  </si>
+  <si>
+    <t>der Tag der Auserwählten</t>
+  </si>
+  <si>
+    <t>Eisland</t>
+  </si>
+  <si>
+    <t>der Tag der Auserwählten is the day were all the tribes gather at the Höhle von Khazak. Here they celebrate the gods and their people and a tournament is held to declare the new main Shaman of the Animali</t>
+  </si>
+  <si>
+    <t>The animali are not able to visit the graves of their families and friends however on the first day of a new year they honour their dead</t>
+  </si>
+  <si>
+    <t>der Tag des Schenkens</t>
+  </si>
+  <si>
+    <t>Der Tag des Schenkens ist ein Tag wo alle die Bürgern Rah Kari ihren Treue zeigt. Jeder familie geht zum temple oder heilige Ort und bring essen und delicateesen als Geschenk für den Götern</t>
+  </si>
+  <si>
+    <t>Tag des Ruhe</t>
+  </si>
+  <si>
+    <t>The Day of Quit is the day where the dwarfs remember the dwarfs that died during the Felssturz</t>
+  </si>
+  <si>
+    <t>Yuplanna</t>
+  </si>
+  <si>
+    <t>Yuplanna is the beginning of summer and during this day everyone in a community gathers together and celebrate for 1 week</t>
+  </si>
+  <si>
+    <t>Heillige Saint Markus</t>
+  </si>
+  <si>
+    <t>Feiertag über die heillige Saint Markus der vor 230 Jahren gelebt habe. Saint Markus hat die Stimme von Gott gehört und als seine Hände hat Markus großartige Sachen für das Kaiserreich gemacht</t>
+  </si>
+  <si>
+    <t>Orks</t>
+  </si>
+  <si>
+    <t>Tag der Seele</t>
+  </si>
+  <si>
+    <t>The day of the mighty feast</t>
+  </si>
+  <si>
+    <t>During the day of the mighty feast the entire tribe comes together and feasts upon the mightiest beast that they have slain in the last weeks. It is a day were orks also shows their skill by displaying their prey</t>
+  </si>
+  <si>
+    <t>Grim Tag</t>
+  </si>
+  <si>
+    <t>Grim Tag celebrates the founding of Grimgrod</t>
+  </si>
+  <si>
+    <t>Das Akunmaahns Opferfest</t>
+  </si>
+  <si>
+    <t>during this festival weak and old orcs are sacrificed to the god Akunmaahns</t>
+  </si>
+  <si>
+    <t>Grimgrod</t>
+  </si>
+  <si>
+    <t>Tag der Erde</t>
+  </si>
+  <si>
+    <t>during the day of the earth orcs pray for and thank the earth for all that it has given them</t>
+  </si>
+  <si>
+    <t>Unabhängigkeitstag</t>
+  </si>
+  <si>
+    <t>An diesem Tag wird die Unabhängigkeit Eldrias vom Kaiserreich gewürdigt.</t>
+  </si>
+  <si>
+    <t>Tag der Ritterlichkeit</t>
+  </si>
+  <si>
+    <t>Dieser Tag dient der Verstärkung der geschworenen Eide der Ritterlichkeit und den damit verbundenen Tugenden.</t>
+  </si>
+  <si>
+    <t>19.03.</t>
+  </si>
+  <si>
+    <t>23.02.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.09. </t>
+  </si>
+  <si>
+    <t>Tag des Duells</t>
+  </si>
+  <si>
+    <t>Dieser Tag dient der Würdigung aller in ehrenvoll geführten Duellen gefallener und wird in einigen Verhandlungen zum Anlass genommen, unlösbare Differenzen zu klären.</t>
+  </si>
+  <si>
+    <t>12.11.</t>
+  </si>
+  <si>
+    <t>Tag des Volkes</t>
+  </si>
+  <si>
+    <t>Dieser Feiertag dient der Wertschätzung der Arbeit der Bevölkerung [um ihnen das Gefühl zu vermitteln sie seien mehr als nur Systemerhalter.]</t>
+  </si>
+  <si>
+    <t>Halblinge</t>
+  </si>
+  <si>
+    <t>Tag der Fruchtbarkeit</t>
+  </si>
+  <si>
+    <t>03.05.</t>
+  </si>
+  <si>
+    <t>Dieser Tag dient der Wertschätzung der Fruchtbarkeit der Erde und der Halblinge.</t>
+  </si>
+  <si>
+    <t>Silva Nacia</t>
+  </si>
+  <si>
+    <t>Tag des großen Baumes</t>
+  </si>
+  <si>
+    <t>Dieser Tag dient der Verbindung mit den alten Völkern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10. </t>
+  </si>
+  <si>
+    <t>Eigenschaft</t>
+  </si>
+  <si>
+    <t>Valenz</t>
+  </si>
+  <si>
+    <t>Regeln</t>
+  </si>
+  <si>
+    <t>Tierverbindung</t>
+  </si>
+  <si>
+    <t>Stummheit</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Armverlust</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>Haarausfall</t>
+  </si>
+  <si>
+    <t>Der DM legt Kosten und Regeln im individuellen Fall fest.</t>
+  </si>
+  <si>
+    <t>Es hat keine Nachteile bis auf die Tatsache dass die Haare ausfallen. Aber willst du das wirklich machen?</t>
+  </si>
+  <si>
+    <t>Die Mutation der Animali</t>
+  </si>
+  <si>
+    <t>Der Arm ist ein wichtiges Werkzeug, ohne ihn wird der Kampf schwierig</t>
+  </si>
+  <si>
+    <t>Man hat nur einen Arm, alle Aktionen die zwei Arme brauchen sind leider unmöglich.</t>
   </si>
 </sst>
 </file>
@@ -1086,9 +1259,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{3AC1094F-1E75-4AA5-815E-8334C46451CC}"/>
-    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{95ACF668-2423-4D14-9BF3-1275E0718E74}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3118,7 +3291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3170,7 +3343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3371,20 +3544,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEC9946-8FE9-4832-BD17-024436EEC063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.76171875" customWidth="1"/>
+    <col min="6" max="6" width="14.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3427,7 +3600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3484,7 +3657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3501,7 +3674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3518,7 +3691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3535,7 +3708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3552,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3569,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3597,24 +3770,29 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36AD97F-2875-4ABD-880F-F339EA786665}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.41015625" customWidth="1"/>
+    <col min="3" max="3" width="18.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -3628,7 +3806,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>229</v>
       </c>
@@ -3642,7 +3820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -3653,7 +3831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -3664,96 +3842,96 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>228</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>242</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>20.100000000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -3767,7 +3945,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -3781,7 +3959,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -3795,7 +3973,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -3809,7 +3987,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -3823,162 +4001,386 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>21.06</v>
+      </c>
+      <c r="B17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>273</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" t="s">
-        <v>274</v>
       </c>
       <c r="D18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>267</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
-      </c>
-      <c r="C25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
         <v>285</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>283</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>20.03</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
         <v>290</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>288</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>291</v>
-      </c>
-      <c r="D27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" t="s">
-        <v>297</v>
       </c>
       <c r="D29" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>15.07</v>
+      </c>
+      <c r="B32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>5.05</v>
+      </c>
+      <c r="B34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>1.01</v>
+      </c>
+      <c r="B35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>1.08</v>
+      </c>
+      <c r="B36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>28.04</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>15.06</v>
+      </c>
+      <c r="B38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>30.04</v>
+      </c>
+      <c r="B39" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3987,23 +4389,127 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB322C39-9559-45E8-B944-8A033F6BEDE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEEF8A-39E8-413E-87E3-CC48CFCC21D3}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D23" sqref="D22:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="16384" width="11.41015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -4041,7 +4547,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -4067,7 +4573,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -4093,7 +4599,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -4117,7 +4623,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -4143,7 +4649,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
@@ -4171,7 +4677,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -4199,7 +4705,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -4223,7 +4729,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
@@ -4251,7 +4757,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -4277,7 +4783,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -4303,7 +4809,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -4329,7 +4835,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4355,7 +4861,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -4381,7 +4887,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -4407,7 +4913,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -4431,7 +4937,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4445,7 +4951,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4459,7 +4965,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4475,26 +4981,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04571AAA-FB08-46F4-94F0-1E231F185660}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="2"/>
-    <col min="4" max="4" width="19.5546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="19.76171875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.41015625" style="2"/>
+    <col min="4" max="4" width="19.41015625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.41015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>216</v>
       </c>
@@ -4511,7 +5022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -4525,7 +5036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>208</v>
       </c>
@@ -4539,7 +5050,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>208</v>
       </c>
@@ -4553,7 +5064,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>208</v>
       </c>
@@ -4567,7 +5078,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>200</v>
       </c>
@@ -4584,7 +5095,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>200</v>
       </c>
@@ -4601,7 +5112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>200</v>
       </c>
@@ -4618,7 +5129,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>200</v>
       </c>
@@ -4635,7 +5146,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>194</v>
       </c>
@@ -4649,7 +5160,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>194</v>
       </c>
@@ -4663,7 +5174,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>194</v>
       </c>
@@ -4677,7 +5188,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>194</v>
       </c>
@@ -4691,7 +5202,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>189</v>
       </c>
@@ -4705,7 +5216,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>189</v>
       </c>
@@ -4719,7 +5230,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>189</v>
       </c>
@@ -4733,7 +5244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>189</v>
       </c>
@@ -4747,7 +5258,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -4761,7 +5272,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>184</v>
       </c>
@@ -4775,7 +5286,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>184</v>
       </c>
@@ -4789,7 +5300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>184</v>
       </c>
@@ -4803,7 +5314,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>179</v>
       </c>
@@ -4817,7 +5328,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
@@ -4831,7 +5342,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>179</v>
       </c>
@@ -4845,7 +5356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>179</v>
       </c>
@@ -4859,7 +5370,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>174</v>
       </c>
@@ -4873,7 +5384,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>174</v>
       </c>
@@ -4887,7 +5398,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
@@ -4901,7 +5412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>174</v>
       </c>
@@ -4915,7 +5426,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>169</v>
       </c>
@@ -4929,7 +5440,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>169</v>
       </c>
@@ -4943,7 +5454,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>169</v>
       </c>
@@ -4957,7 +5468,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>169</v>
       </c>
@@ -4971,7 +5482,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>167</v>
       </c>
@@ -4985,7 +5496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>162</v>
       </c>
@@ -4999,7 +5510,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
@@ -5013,7 +5524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>162</v>
       </c>
@@ -5027,7 +5538,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>162</v>
       </c>
@@ -5041,7 +5552,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>159</v>
       </c>
@@ -5055,7 +5566,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -5069,7 +5580,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>154</v>
       </c>
@@ -5083,7 +5594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>154</v>
       </c>
@@ -5097,7 +5608,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>154</v>
       </c>
@@ -5111,7 +5622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>154</v>
       </c>
@@ -5125,7 +5636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
@@ -5137,7 +5648,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>152</v>
       </c>
@@ -5149,7 +5660,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>152</v>
       </c>
@@ -5161,7 +5672,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>152</v>
       </c>
@@ -5173,7 +5684,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -5185,7 +5696,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>152</v>
       </c>
@@ -5197,7 +5708,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>148</v>
       </c>
@@ -5211,7 +5722,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>148</v>
       </c>
@@ -5225,7 +5736,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>148</v>
       </c>
@@ -5239,7 +5750,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>148</v>
       </c>
@@ -5253,7 +5764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>141</v>
       </c>
@@ -5267,7 +5778,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>141</v>
       </c>
@@ -5281,7 +5792,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>141</v>
       </c>
@@ -5295,7 +5806,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>141</v>
       </c>
@@ -5309,7 +5820,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>141</v>
       </c>
@@ -5323,7 +5834,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -5337,7 +5848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>137</v>
       </c>
@@ -5354,7 +5865,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>137</v>
       </c>
@@ -5371,7 +5882,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>137</v>
       </c>
@@ -5388,7 +5899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -5402,7 +5913,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -5416,7 +5927,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
@@ -5430,7 +5941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
@@ -5444,7 +5955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>129</v>
       </c>
@@ -5458,7 +5969,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
@@ -5472,7 +5983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>127</v>
       </c>
@@ -5486,7 +5997,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
         <v>125</v>
       </c>
@@ -5503,7 +6014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="185.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="185.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>122</v>
       </c>
@@ -5517,7 +6028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>118</v>
       </c>
@@ -5531,7 +6042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -5545,7 +6056,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>118</v>
       </c>
@@ -5559,7 +6070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
@@ -5573,7 +6084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>115</v>
       </c>
@@ -5587,7 +6098,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>113</v>
       </c>
@@ -5601,7 +6112,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="9" t="s">
         <v>109</v>
       </c>
@@ -5618,7 +6129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -5635,7 +6146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>104</v>
       </c>
@@ -5649,7 +6160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>104</v>
       </c>
@@ -5663,7 +6174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>104</v>
       </c>
@@ -5677,7 +6188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>99</v>
       </c>
@@ -5691,7 +6202,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>99</v>
       </c>
@@ -5705,7 +6216,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -5719,7 +6230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>99</v>
       </c>
@@ -5735,6 +6246,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECFB623-B665-41D5-AE04-B9041AB29885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2ED96-711F-4659-92D0-9891980D6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29010" yWindow="8010" windowWidth="29220" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="382">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -1075,9 +1075,6 @@
     <t>Tierverbindung</t>
   </si>
   <si>
-    <t>Stummheit</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -1109,6 +1106,84 @@
   </si>
   <si>
     <t>Man hat nur einen Arm, alle Aktionen die zwei Arme brauchen sind leider unmöglich.</t>
+  </si>
+  <si>
+    <t>Schnelle Blutgerinnung</t>
+  </si>
+  <si>
+    <t>Dein Blut gerinnt schneller, weswegen es sehr schwer für dich ist zu verbluten</t>
+  </si>
+  <si>
+    <t>Resistenz gegen den Statuseffekt "bluten"</t>
+  </si>
+  <si>
+    <t>Hämophilie</t>
+  </si>
+  <si>
+    <t>Dein Blut gerinnt kaum, weswegen du leicht verblutest</t>
+  </si>
+  <si>
+    <t>Empfindlichkeit gegen den Statuseffekt "bluten"</t>
+  </si>
+  <si>
+    <t>Drogenvergangenheit</t>
+  </si>
+  <si>
+    <t>Du bekommst 6 Würfel mehr für den Toxi-Save nach Tränken</t>
+  </si>
+  <si>
+    <t>Stummheit/&lt;br&gt;Taubheit</t>
+  </si>
+  <si>
+    <t>Feuerempfindlichkeit</t>
+  </si>
+  <si>
+    <t>Feuerresistenz</t>
+  </si>
+  <si>
+    <t>Empfindlichkeit gegen den Statuseffekt "brennen"</t>
+  </si>
+  <si>
+    <t>Resistenz gegen den Statuseffekt "brennen"</t>
+  </si>
+  <si>
+    <t>Giftresistenz</t>
+  </si>
+  <si>
+    <t>Giftempfindlichkeit</t>
+  </si>
+  <si>
+    <t>Resistenz gegen den Statuseffekt "gift"</t>
+  </si>
+  <si>
+    <t>Empfindlichkeit gegen den Statuseffekt "gift"</t>
+  </si>
+  <si>
+    <t>Du bist Stumm/Taub, dein Charakter kann nicht reden oder hören</t>
+  </si>
+  <si>
+    <t>30.04</t>
+  </si>
+  <si>
+    <t>15.06</t>
+  </si>
+  <si>
+    <t>28.04</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>20.03</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1331,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3551,13 +3626,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.76171875" customWidth="1"/>
-    <col min="6" max="6" width="14.1171875" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3657,7 +3732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3674,7 +3749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3691,7 +3766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3708,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3725,7 +3800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3742,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3782,18 +3857,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.41015625" customWidth="1"/>
-    <col min="3" max="3" width="18.3515625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="12"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>217</v>
       </c>
       <c r="B1" t="s">
@@ -3806,8 +3882,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>229</v>
       </c>
       <c r="B2" t="s">
@@ -3820,8 +3896,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C3" t="s">
@@ -3831,8 +3907,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>231</v>
       </c>
       <c r="C4" t="s">
@@ -3842,7 +3918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>226</v>
       </c>
@@ -3850,8 +3926,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>243</v>
       </c>
       <c r="B6" t="s">
@@ -3861,8 +3937,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>233</v>
       </c>
       <c r="B7" t="s">
@@ -3875,8 +3951,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>240</v>
       </c>
       <c r="B8" t="s">
@@ -3889,8 +3965,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>237</v>
       </c>
       <c r="B9" t="s">
@@ -3903,8 +3979,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>242</v>
       </c>
       <c r="B10" t="s">
@@ -3917,8 +3993,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>20.100000000000001</v>
       </c>
       <c r="B11" t="s">
@@ -3931,8 +4007,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>248</v>
       </c>
       <c r="B12" t="s">
@@ -3945,8 +4021,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>251</v>
       </c>
       <c r="B13" t="s">
@@ -3959,8 +4035,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>254</v>
       </c>
       <c r="B14" t="s">
@@ -3973,8 +4049,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>255</v>
       </c>
       <c r="B15" t="s">
@@ -3987,8 +4063,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>263</v>
       </c>
       <c r="B16" t="s">
@@ -4001,8 +4077,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>21.06</v>
       </c>
       <c r="B17" t="s">
@@ -4015,7 +4091,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>265</v>
       </c>
@@ -4026,8 +4102,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>266</v>
       </c>
       <c r="B19" t="s">
@@ -4037,8 +4113,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>267</v>
       </c>
       <c r="B20" t="s">
@@ -4048,8 +4124,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>269</v>
       </c>
       <c r="B21" t="s">
@@ -4059,8 +4135,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>270</v>
       </c>
       <c r="B22" t="s">
@@ -4070,8 +4146,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>271</v>
       </c>
       <c r="B23" t="s">
@@ -4081,8 +4157,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>272</v>
       </c>
       <c r="B24" t="s">
@@ -4092,8 +4168,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>268</v>
       </c>
       <c r="B25" t="s">
@@ -4103,8 +4179,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>284</v>
       </c>
       <c r="B26" t="s">
@@ -4117,8 +4193,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>285</v>
       </c>
       <c r="B27" t="s">
@@ -4131,9 +4207,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>20.03</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="B28" t="s">
         <v>302</v>
@@ -4145,8 +4221,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>290</v>
       </c>
       <c r="B29" t="s">
@@ -4159,8 +4235,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>292</v>
       </c>
       <c r="B30" t="s">
@@ -4173,8 +4249,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>296</v>
       </c>
       <c r="B31" t="s">
@@ -4187,9 +4263,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32">
-        <v>15.07</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="B32" t="s">
         <v>304</v>
@@ -4201,8 +4277,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>228</v>
       </c>
       <c r="B33" t="s">
@@ -4215,9 +4291,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34">
-        <v>5.05</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="B34" t="s">
         <v>298</v>
@@ -4229,9 +4305,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35">
-        <v>1.01</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="B35" t="s">
         <v>311</v>
@@ -4243,9 +4319,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>1.08</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="B36" t="s">
         <v>312</v>
@@ -4257,9 +4333,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37">
-        <v>28.04</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="B37" t="s">
         <v>314</v>
@@ -4271,9 +4347,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38">
-        <v>15.06</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="B38" t="s">
         <v>316</v>
@@ -4285,9 +4361,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39">
-        <v>30.04</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="B39" t="s">
         <v>319</v>
@@ -4299,7 +4375,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>326</v>
       </c>
@@ -4313,8 +4389,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>325</v>
       </c>
       <c r="B41" t="s">
@@ -4327,8 +4403,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
         <v>327</v>
       </c>
       <c r="B42" t="s">
@@ -4341,8 +4417,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>330</v>
       </c>
       <c r="B43" t="s">
@@ -4355,8 +4431,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>335</v>
       </c>
       <c r="B44" t="s">
@@ -4369,8 +4445,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>340</v>
       </c>
       <c r="B45" t="s">
@@ -4399,15 +4475,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEEF8A-39E8-413E-87E3-CC48CFCC21D3}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:D23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -4424,71 +4500,178 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" t="s">
         <v>347</v>
-      </c>
-      <c r="B4" t="s">
-        <v>348</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
         <v>355</v>
       </c>
-      <c r="E4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>350</v>
       </c>
-      <c r="B5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>351</v>
-      </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4504,12 +4687,12 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.41015625" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -4547,7 +4730,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -4573,7 +4756,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -4599,7 +4782,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -4623,7 +4806,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -4649,7 +4832,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
@@ -4677,7 +4860,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -4705,7 +4888,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -4729,7 +4912,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
@@ -4757,7 +4940,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -4783,7 +4966,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -4809,7 +4992,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -4835,7 +5018,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4861,7 +5044,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -4887,7 +5070,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -4913,7 +5096,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +5120,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4951,7 +5134,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4965,7 +5148,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4997,15 +5180,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.41015625" style="2"/>
-    <col min="4" max="4" width="19.41015625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.41015625" style="2"/>
+    <col min="1" max="1" width="19.77734375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="19.44140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>216</v>
       </c>
@@ -5022,7 +5205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -5036,7 +5219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>208</v>
       </c>
@@ -5050,7 +5233,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>208</v>
       </c>
@@ -5064,7 +5247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>208</v>
       </c>
@@ -5078,7 +5261,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>200</v>
       </c>
@@ -5095,7 +5278,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>200</v>
       </c>
@@ -5112,7 +5295,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>200</v>
       </c>
@@ -5129,7 +5312,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>200</v>
       </c>
@@ -5146,7 +5329,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>194</v>
       </c>
@@ -5160,7 +5343,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>194</v>
       </c>
@@ -5174,7 +5357,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>194</v>
       </c>
@@ -5188,7 +5371,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>194</v>
       </c>
@@ -5202,7 +5385,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>189</v>
       </c>
@@ -5216,7 +5399,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>189</v>
       </c>
@@ -5230,7 +5413,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>189</v>
       </c>
@@ -5244,7 +5427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>189</v>
       </c>
@@ -5258,7 +5441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -5272,7 +5455,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>184</v>
       </c>
@@ -5286,7 +5469,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>184</v>
       </c>
@@ -5300,7 +5483,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>184</v>
       </c>
@@ -5314,7 +5497,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>179</v>
       </c>
@@ -5328,7 +5511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
@@ -5342,7 +5525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>179</v>
       </c>
@@ -5356,7 +5539,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>179</v>
       </c>
@@ -5370,7 +5553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>174</v>
       </c>
@@ -5384,7 +5567,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>174</v>
       </c>
@@ -5398,7 +5581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
@@ -5412,7 +5595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>174</v>
       </c>
@@ -5426,7 +5609,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>169</v>
       </c>
@@ -5440,7 +5623,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>169</v>
       </c>
@@ -5454,7 +5637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>169</v>
       </c>
@@ -5468,7 +5651,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>169</v>
       </c>
@@ -5482,7 +5665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>167</v>
       </c>
@@ -5496,7 +5679,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>162</v>
       </c>
@@ -5510,7 +5693,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
@@ -5524,7 +5707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>162</v>
       </c>
@@ -5538,7 +5721,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>162</v>
       </c>
@@ -5552,7 +5735,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>159</v>
       </c>
@@ -5566,7 +5749,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -5580,7 +5763,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>154</v>
       </c>
@@ -5594,7 +5777,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>154</v>
       </c>
@@ -5608,7 +5791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>154</v>
       </c>
@@ -5622,7 +5805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>154</v>
       </c>
@@ -5636,7 +5819,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
@@ -5648,7 +5831,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>152</v>
       </c>
@@ -5660,7 +5843,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>152</v>
       </c>
@@ -5672,7 +5855,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>152</v>
       </c>
@@ -5684,7 +5867,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -5696,7 +5879,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>152</v>
       </c>
@@ -5708,7 +5891,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>148</v>
       </c>
@@ -5722,7 +5905,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>148</v>
       </c>
@@ -5736,7 +5919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>148</v>
       </c>
@@ -5750,7 +5933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>148</v>
       </c>
@@ -5764,7 +5947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>141</v>
       </c>
@@ -5778,7 +5961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>141</v>
       </c>
@@ -5792,7 +5975,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>141</v>
       </c>
@@ -5806,7 +5989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>141</v>
       </c>
@@ -5820,7 +6003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>141</v>
       </c>
@@ -5834,7 +6017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -5848,7 +6031,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>137</v>
       </c>
@@ -5865,7 +6048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>137</v>
       </c>
@@ -5882,7 +6065,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>137</v>
       </c>
@@ -5899,7 +6082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -5913,7 +6096,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -5927,7 +6110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
@@ -5941,7 +6124,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
@@ -5955,7 +6138,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>129</v>
       </c>
@@ -5969,7 +6152,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
@@ -5983,7 +6166,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>127</v>
       </c>
@@ -5997,7 +6180,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>125</v>
       </c>
@@ -6014,7 +6197,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="185.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="185.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>122</v>
       </c>
@@ -6028,7 +6211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>118</v>
       </c>
@@ -6042,7 +6225,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -6056,7 +6239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>118</v>
       </c>
@@ -6070,7 +6253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
@@ -6084,7 +6267,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>115</v>
       </c>
@@ -6098,7 +6281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>113</v>
       </c>
@@ -6112,7 +6295,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>109</v>
       </c>
@@ -6129,7 +6312,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -6146,7 +6329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>104</v>
       </c>
@@ -6160,7 +6343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>104</v>
       </c>
@@ -6174,7 +6357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>104</v>
       </c>
@@ -6188,7 +6371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>99</v>
       </c>
@@ -6202,7 +6385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>99</v>
       </c>
@@ -6216,7 +6399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -6230,7 +6413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>99</v>
       </c>

--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2ED96-711F-4659-92D0-9891980D6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20A75F-C088-4A98-A72B-C835025E3A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="392">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -1132,9 +1132,6 @@
     <t>Du bekommst 6 Würfel mehr für den Toxi-Save nach Tränken</t>
   </si>
   <si>
-    <t>Stummheit/&lt;br&gt;Taubheit</t>
-  </si>
-  <si>
     <t>Feuerempfindlichkeit</t>
   </si>
   <si>
@@ -1159,9 +1156,6 @@
     <t>Empfindlichkeit gegen den Statuseffekt "gift"</t>
   </si>
   <si>
-    <t>Du bist Stumm/Taub, dein Charakter kann nicht reden oder hören</t>
-  </si>
-  <si>
     <t>30.04</t>
   </si>
   <si>
@@ -1184,6 +1178,42 @@
   </si>
   <si>
     <t>20.03</t>
+  </si>
+  <si>
+    <t>Stummheit</t>
+  </si>
+  <si>
+    <t>Taubheit</t>
+  </si>
+  <si>
+    <t>Du bist Taub, dein Charakter kann nicht hören</t>
+  </si>
+  <si>
+    <t>Du bist Stumm, dein Charakter kann nicht reden</t>
+  </si>
+  <si>
+    <t>Angsthase</t>
+  </si>
+  <si>
+    <t>Du hast auf jeden Willenskraft-Safe +2 auf den Threshold</t>
+  </si>
+  <si>
+    <t>Mutig</t>
+  </si>
+  <si>
+    <t>Du hast auf jeden Willenskraft-Safe -2 auf den Threshold</t>
+  </si>
+  <si>
+    <t>Glückspilz</t>
+  </si>
+  <si>
+    <t>Du startest mit 2 Glück mehr</t>
+  </si>
+  <si>
+    <t>Pechsträhne</t>
+  </si>
+  <si>
+    <t>Du startest mit 2 Glück weniger</t>
   </si>
 </sst>
 </file>
@@ -3626,13 +3656,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.76171875" customWidth="1"/>
+    <col min="6" max="6" width="14.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3675,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3698,7 +3728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3715,7 +3745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3732,7 +3762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3749,7 +3779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3766,7 +3796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -3783,7 +3813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3800,7 +3830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3817,7 +3847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3857,18 +3887,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="12"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.41015625" style="12"/>
+    <col min="2" max="2" width="25.41015625" customWidth="1"/>
+    <col min="3" max="3" width="18.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>217</v>
       </c>
@@ -3882,7 +3912,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>229</v>
       </c>
@@ -3896,7 +3926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>230</v>
       </c>
@@ -3907,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>231</v>
       </c>
@@ -3918,7 +3948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>226</v>
       </c>
@@ -3926,7 +3956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>243</v>
       </c>
@@ -3937,7 +3967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>233</v>
       </c>
@@ -3951,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>240</v>
       </c>
@@ -3965,7 +3995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>237</v>
       </c>
@@ -3979,7 +4009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
         <v>242</v>
       </c>
@@ -3993,7 +4023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="12">
         <v>20.100000000000001</v>
       </c>
@@ -4007,7 +4037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="12" t="s">
         <v>248</v>
       </c>
@@ -4021,7 +4051,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
         <v>251</v>
       </c>
@@ -4035,7 +4065,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
         <v>254</v>
       </c>
@@ -4049,7 +4079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
         <v>255</v>
       </c>
@@ -4063,7 +4093,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
         <v>263</v>
       </c>
@@ -4077,7 +4107,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="12">
         <v>21.06</v>
       </c>
@@ -4091,7 +4121,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="12" t="s">
         <v>265</v>
       </c>
@@ -4102,7 +4132,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="12" t="s">
         <v>266</v>
       </c>
@@ -4113,7 +4143,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="12" t="s">
         <v>267</v>
       </c>
@@ -4124,7 +4154,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="12" t="s">
         <v>269</v>
       </c>
@@ -4135,7 +4165,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="12" t="s">
         <v>270</v>
       </c>
@@ -4146,7 +4176,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="12" t="s">
         <v>271</v>
       </c>
@@ -4157,7 +4187,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="12" t="s">
         <v>272</v>
       </c>
@@ -4168,7 +4198,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>268</v>
       </c>
@@ -4179,7 +4209,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="12" t="s">
         <v>284</v>
       </c>
@@ -4193,7 +4223,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="12" t="s">
         <v>285</v>
       </c>
@@ -4207,9 +4237,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B28" t="s">
         <v>302</v>
@@ -4221,7 +4251,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="12" t="s">
         <v>290</v>
       </c>
@@ -4235,7 +4265,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="12" t="s">
         <v>292</v>
       </c>
@@ -4249,7 +4279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="12" t="s">
         <v>296</v>
       </c>
@@ -4263,9 +4293,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
         <v>304</v>
@@ -4277,7 +4307,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="12" t="s">
         <v>228</v>
       </c>
@@ -4291,9 +4321,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B34" t="s">
         <v>298</v>
@@ -4305,9 +4335,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B35" t="s">
         <v>311</v>
@@ -4319,9 +4349,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
         <v>312</v>
@@ -4333,9 +4363,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s">
         <v>314</v>
@@ -4347,9 +4377,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s">
         <v>316</v>
@@ -4361,9 +4391,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
         <v>319</v>
@@ -4375,7 +4405,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="12" t="s">
         <v>326</v>
       </c>
@@ -4389,7 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="12" t="s">
         <v>325</v>
       </c>
@@ -4403,7 +4433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="12" t="s">
         <v>327</v>
       </c>
@@ -4417,7 +4447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="12" t="s">
         <v>330</v>
       </c>
@@ -4431,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="12" t="s">
         <v>335</v>
       </c>
@@ -4445,7 +4475,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="12" t="s">
         <v>340</v>
       </c>
@@ -4475,15 +4505,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEEF8A-39E8-413E-87E3-CC48CFCC21D3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -4500,7 +4530,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -4511,9 +4541,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>347</v>
@@ -4522,10 +4552,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -4542,7 +4572,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -4556,7 +4586,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -4570,7 +4600,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -4587,7 +4617,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>359</v>
       </c>
@@ -4604,7 +4634,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -4618,9 +4648,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>347</v>
@@ -4629,12 +4659,12 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>348</v>
@@ -4643,12 +4673,12 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>369</v>
       </c>
       <c r="B12" t="s">
         <v>348</v>
@@ -4657,12 +4687,12 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
         <v>347</v>
@@ -4671,7 +4701,77 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4687,12 +4787,12 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="16384" width="11.41015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -4730,7 +4830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -4756,7 +4856,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -4782,7 +4882,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -4806,7 +4906,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -4832,7 +4932,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
@@ -4860,7 +4960,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
@@ -4888,7 +4988,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
@@ -4912,7 +5012,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
@@ -4940,7 +5040,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -4966,7 +5066,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -4992,7 +5092,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -5018,7 +5118,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -5044,7 +5144,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -5070,7 +5170,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -5096,7 +5196,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -5120,7 +5220,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5134,7 +5234,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5148,7 +5248,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5180,15 +5280,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="19.44140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="19.76171875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.41015625" style="2"/>
+    <col min="4" max="4" width="19.41015625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.41015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>216</v>
       </c>
@@ -5205,7 +5305,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>208</v>
       </c>
@@ -5219,7 +5319,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>208</v>
       </c>
@@ -5233,7 +5333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>208</v>
       </c>
@@ -5247,7 +5347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>208</v>
       </c>
@@ -5261,7 +5361,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>200</v>
       </c>
@@ -5278,7 +5378,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>200</v>
       </c>
@@ -5295,7 +5395,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>200</v>
       </c>
@@ -5312,7 +5412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>200</v>
       </c>
@@ -5329,7 +5429,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>194</v>
       </c>
@@ -5343,7 +5443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>194</v>
       </c>
@@ -5357,7 +5457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>194</v>
       </c>
@@ -5371,7 +5471,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>194</v>
       </c>
@@ -5385,7 +5485,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>189</v>
       </c>
@@ -5399,7 +5499,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>189</v>
       </c>
@@ -5413,7 +5513,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>189</v>
       </c>
@@ -5427,7 +5527,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>189</v>
       </c>
@@ -5441,7 +5541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -5455,7 +5555,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>184</v>
       </c>
@@ -5469,7 +5569,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>184</v>
       </c>
@@ -5483,7 +5583,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>184</v>
       </c>
@@ -5497,7 +5597,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>179</v>
       </c>
@@ -5511,7 +5611,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>179</v>
       </c>
@@ -5525,7 +5625,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>179</v>
       </c>
@@ -5539,7 +5639,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>179</v>
       </c>
@@ -5553,7 +5653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>174</v>
       </c>
@@ -5567,7 +5667,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>174</v>
       </c>
@@ -5581,7 +5681,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
@@ -5595,7 +5695,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>174</v>
       </c>
@@ -5609,7 +5709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>169</v>
       </c>
@@ -5623,7 +5723,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>169</v>
       </c>
@@ -5637,7 +5737,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>169</v>
       </c>
@@ -5651,7 +5751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>169</v>
       </c>
@@ -5665,7 +5765,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>167</v>
       </c>
@@ -5679,7 +5779,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>162</v>
       </c>
@@ -5693,7 +5793,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>162</v>
       </c>
@@ -5707,7 +5807,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>162</v>
       </c>
@@ -5721,7 +5821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>162</v>
       </c>
@@ -5735,7 +5835,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>159</v>
       </c>
@@ -5749,7 +5849,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -5763,7 +5863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>154</v>
       </c>
@@ -5777,7 +5877,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>154</v>
       </c>
@@ -5791,7 +5891,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>154</v>
       </c>
@@ -5805,7 +5905,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>154</v>
       </c>
@@ -5819,7 +5919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
@@ -5831,7 +5931,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>152</v>
       </c>
@@ -5843,7 +5943,7 @@
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>152</v>
       </c>
@@ -5855,7 +5955,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>152</v>
       </c>
@@ -5867,7 +5967,7 @@
       </c>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>152</v>
       </c>
@@ -5879,7 +5979,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>152</v>
       </c>
@@ -5891,7 +5991,7 @@
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>148</v>
       </c>
@@ -5905,7 +6005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>148</v>
       </c>
@@ -5919,7 +6019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>148</v>
       </c>
@@ -5933,7 +6033,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>148</v>
       </c>
@@ -5947,7 +6047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>141</v>
       </c>
@@ -5961,7 +6061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>141</v>
       </c>
@@ -5975,7 +6075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>141</v>
       </c>
@@ -5989,7 +6089,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>141</v>
       </c>
@@ -6003,7 +6103,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>141</v>
       </c>
@@ -6017,7 +6117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>141</v>
       </c>
@@ -6031,7 +6131,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>137</v>
       </c>
@@ -6048,7 +6148,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>137</v>
       </c>
@@ -6065,7 +6165,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>137</v>
       </c>
@@ -6082,7 +6182,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -6096,7 +6196,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -6110,7 +6210,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
@@ -6124,7 +6224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>129</v>
       </c>
@@ -6138,7 +6238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>129</v>
       </c>
@@ -6152,7 +6252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
@@ -6166,7 +6266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>127</v>
       </c>
@@ -6180,7 +6280,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
         <v>125</v>
       </c>
@@ -6197,7 +6297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="185.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="185.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>122</v>
       </c>
@@ -6211,7 +6311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>118</v>
       </c>
@@ -6225,7 +6325,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -6239,7 +6339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>118</v>
       </c>
@@ -6253,7 +6353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
@@ -6267,7 +6367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>115</v>
       </c>
@@ -6281,7 +6381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>113</v>
       </c>
@@ -6295,7 +6395,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="9" t="s">
         <v>109</v>
       </c>
@@ -6312,7 +6412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>109</v>
       </c>
@@ -6329,7 +6429,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>104</v>
       </c>
@@ -6343,7 +6443,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>104</v>
       </c>
@@ -6357,7 +6457,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>104</v>
       </c>
@@ -6371,7 +6471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>99</v>
       </c>
@@ -6385,7 +6485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>99</v>
       </c>
@@ -6399,7 +6499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
@@ -6413,7 +6513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>99</v>
       </c>

--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20A75F-C088-4A98-A72B-C835025E3A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454CBC8-10E8-4326-959E-ECC5A93122D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="Itemliste">'[1]Itemliste_ not_updated'!$A$2:$A$388</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="445">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -1214,6 +1214,165 @@
   </si>
   <si>
     <t>Du startest mit 2 Glück weniger</t>
+  </si>
+  <si>
+    <t>Beginn der Abschottung von Silva Nacia</t>
+  </si>
+  <si>
+    <t>07.03.1125</t>
+  </si>
+  <si>
+    <t>Durch den Beschluss des Rates von Silvia Nacia wurde der Wald vom Rest der Welt isoliert</t>
+  </si>
+  <si>
+    <t>Der Krieg der unteren Wüste</t>
+  </si>
+  <si>
+    <t>07.03.650</t>
+  </si>
+  <si>
+    <t>17.08.648</t>
+  </si>
+  <si>
+    <t>Großer Krieg der Streitkräfte von Rah Kari. Endete mit der Einnahme von Keshep</t>
+  </si>
+  <si>
+    <t>Die Besiedlung von Grimgrod</t>
+  </si>
+  <si>
+    <t>24.05.460</t>
+  </si>
+  <si>
+    <t>Sklavenaufstand der Rah Kari</t>
+  </si>
+  <si>
+    <t>13.11.400</t>
+  </si>
+  <si>
+    <t>Die Hüter von Rah Kari bekämpften den Kult der Abs'Kartes, was dazu führte, dass Sklaven heute mit dem Emblem ihres Kultes tätowiert sind.</t>
+  </si>
+  <si>
+    <t>Die Seekullturen besiedeln die ersten Staatenschiffe</t>
+  </si>
+  <si>
+    <t>15.01.300</t>
+  </si>
+  <si>
+    <t>Die Besiedlung von Grimgrod, nach der der Stamm in das Reich eingegliedert wurde</t>
+  </si>
+  <si>
+    <t>Verschiedene Gruppen des Seevolkes schlossen sich zusammen, um die heutigen mächtigen Staatsschiffe zu bauen</t>
+  </si>
+  <si>
+    <t>Das Seevolk</t>
+  </si>
+  <si>
+    <t>Die Entstehung der Stadt Nors</t>
+  </si>
+  <si>
+    <t>30.04.223</t>
+  </si>
+  <si>
+    <t>Aufgrund der Konflikte der adeligen Familien des Herzland flohen mehrere Menschen entlang des Reiksee und gründeten Nors</t>
+  </si>
+  <si>
+    <t>Der Seekrieg</t>
+  </si>
+  <si>
+    <t>27.06.40</t>
+  </si>
+  <si>
+    <t>der Krieg, in dem die meisten Staatenschiffe gekämpft haben</t>
+  </si>
+  <si>
+    <t>Die große Jagd auf den Weltenwurm</t>
+  </si>
+  <si>
+    <t>30.09.65</t>
+  </si>
+  <si>
+    <t>Die Große Jagd der Animali, die im heutigen Nebelhaim mit dem Tod eines Weltwurms endete</t>
+  </si>
+  <si>
+    <t>14.01.130</t>
+  </si>
+  <si>
+    <t>Ende der golden Jahre des Reichs</t>
+  </si>
+  <si>
+    <t>21.04.150</t>
+  </si>
+  <si>
+    <t>Nach dem Tod von Dorocletian durch sein Zweitgeborenen Nematus Dorocletianus kamen die godenen Jahre zum Ende</t>
+  </si>
+  <si>
+    <t>Nebelhaim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach langem Kontakt und Schutz von ihren Nachbarn entschieden sich die Menschen von Yondalla gemeinsam, dem Kaiserreich beizutreten </t>
+  </si>
+  <si>
+    <t>Die Erschließung Yondallas</t>
+  </si>
+  <si>
+    <t>Die ersten merklichen Stämme von Yondalla bilden sich und treten in Kontakt mit anderen Kulturen</t>
+  </si>
+  <si>
+    <t>Der Restitutor Orbis und die Schleifung von Riga</t>
+  </si>
+  <si>
+    <t>Der Aufstieg von Lucille Prodius zum Kaiser</t>
+  </si>
+  <si>
+    <t>Die Eroberung Eldrias</t>
+  </si>
+  <si>
+    <t>09.09.320</t>
+  </si>
+  <si>
+    <t>18.02.190</t>
+  </si>
+  <si>
+    <t>3.12.415</t>
+  </si>
+  <si>
+    <t>das Kaiserreich marschierte mit ihren Großkanonen durch Silva Nacia und eroberte Eldria</t>
+  </si>
+  <si>
+    <t>Elfen</t>
+  </si>
+  <si>
+    <t>Die Entwurzelung</t>
+  </si>
+  <si>
+    <t>Das Kaiserreich versklavt die Elfen im eigenen Gebiet</t>
+  </si>
+  <si>
+    <t>13.04.20</t>
+  </si>
+  <si>
+    <t>Die Entstehung der Creatura Animali</t>
+  </si>
+  <si>
+    <t>01.09.423</t>
+  </si>
+  <si>
+    <t>Texte von Khazak werden in Eisland falsch übersetzt und als Foolge entstehen die ersten Animali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das Kaiserreich veruschte einen Stütztpunkt in Ska'en zu erreichen und trafen zum ersten Mal auf die lokale Bevölkerung </t>
+  </si>
+  <si>
+    <t>Ska'en</t>
+  </si>
+  <si>
+    <t>29.04.124</t>
+  </si>
+  <si>
+    <t>Erstkontakt mit den Ska'en</t>
+  </si>
+  <si>
+    <t>die Besetzung von Yondalla durch das Kaiserreich</t>
   </si>
 </sst>
 </file>
@@ -1332,9 +1491,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3354,7 +3512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3396,7 +3554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3448,7 +3606,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3650,16 +3808,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.76171875" customWidth="1"/>
-    <col min="6" max="6" width="14.1171875" customWidth="1"/>
+    <col min="1" max="1" width="35.87890625" customWidth="1"/>
+    <col min="6" max="6" width="45.87890625" customWidth="1"/>
+    <col min="7" max="7" width="22.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
@@ -3692,7 +3851,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -3709,7 +3868,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -3732,7 +3891,7 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
@@ -3749,7 +3908,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
@@ -3766,7 +3925,7 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
@@ -3783,7 +3942,7 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
@@ -3798,83 +3957,362 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+        <v>392</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>394</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>220</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>403</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>414</v>
+      </c>
+      <c r="H17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>417</v>
+      </c>
+      <c r="H20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>421</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>427</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>432</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H27" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A10:B10">
+  <conditionalFormatting sqref="A18:B26">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3887,19 +4325,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.41015625" style="12"/>
-    <col min="2" max="2" width="25.41015625" customWidth="1"/>
+    <col min="1" max="1" width="11.3515625" style="11"/>
+    <col min="2" max="2" width="25.3515625" customWidth="1"/>
     <col min="3" max="3" width="18.3515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>217</v>
       </c>
       <c r="B1" t="s">
@@ -3913,7 +4351,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>229</v>
       </c>
       <c r="B2" t="s">
@@ -3927,7 +4365,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C3" t="s">
@@ -3938,7 +4376,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C4" t="s">
@@ -3957,7 +4395,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>243</v>
       </c>
       <c r="B6" t="s">
@@ -3968,7 +4406,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>233</v>
       </c>
       <c r="B7" t="s">
@@ -3982,7 +4420,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>240</v>
       </c>
       <c r="B8" t="s">
@@ -3996,7 +4434,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>237</v>
       </c>
       <c r="B9" t="s">
@@ -4010,7 +4448,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>242</v>
       </c>
       <c r="B10" t="s">
@@ -4024,7 +4462,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>20.100000000000001</v>
       </c>
       <c r="B11" t="s">
@@ -4038,7 +4476,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>248</v>
       </c>
       <c r="B12" t="s">
@@ -4052,7 +4490,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>251</v>
       </c>
       <c r="B13" t="s">
@@ -4066,7 +4504,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>254</v>
       </c>
       <c r="B14" t="s">
@@ -4080,7 +4518,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>255</v>
       </c>
       <c r="B15" t="s">
@@ -4094,7 +4532,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>263</v>
       </c>
       <c r="B16" t="s">
@@ -4108,7 +4546,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>21.06</v>
       </c>
       <c r="B17" t="s">
@@ -4122,7 +4560,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>265</v>
       </c>
       <c r="B18" t="s">
@@ -4133,7 +4571,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>266</v>
       </c>
       <c r="B19" t="s">
@@ -4144,7 +4582,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>267</v>
       </c>
       <c r="B20" t="s">
@@ -4155,7 +4593,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>269</v>
       </c>
       <c r="B21" t="s">
@@ -4166,7 +4604,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>270</v>
       </c>
       <c r="B22" t="s">
@@ -4177,7 +4615,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>271</v>
       </c>
       <c r="B23" t="s">
@@ -4188,7 +4626,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>272</v>
       </c>
       <c r="B24" t="s">
@@ -4199,7 +4637,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>268</v>
       </c>
       <c r="B25" t="s">
@@ -4210,7 +4648,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>284</v>
       </c>
       <c r="B26" t="s">
@@ -4224,7 +4662,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>285</v>
       </c>
       <c r="B27" t="s">
@@ -4238,7 +4676,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>379</v>
       </c>
       <c r="B28" t="s">
@@ -4252,7 +4690,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>290</v>
       </c>
       <c r="B29" t="s">
@@ -4266,7 +4704,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>292</v>
       </c>
       <c r="B30" t="s">
@@ -4280,7 +4718,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B31" t="s">
@@ -4294,7 +4732,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>378</v>
       </c>
       <c r="B32" t="s">
@@ -4308,7 +4746,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>228</v>
       </c>
       <c r="B33" t="s">
@@ -4322,7 +4760,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>375</v>
       </c>
       <c r="B34" t="s">
@@ -4336,7 +4774,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>376</v>
       </c>
       <c r="B35" t="s">
@@ -4350,7 +4788,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>377</v>
       </c>
       <c r="B36" t="s">
@@ -4364,7 +4802,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>374</v>
       </c>
       <c r="B37" t="s">
@@ -4378,7 +4816,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>373</v>
       </c>
       <c r="B38" t="s">
@@ -4392,7 +4830,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>372</v>
       </c>
       <c r="B39" t="s">
@@ -4406,7 +4844,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B40" t="s">
@@ -4420,7 +4858,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>325</v>
       </c>
       <c r="B41" t="s">
@@ -4434,7 +4872,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>327</v>
       </c>
       <c r="B42" t="s">
@@ -4448,7 +4886,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>330</v>
       </c>
       <c r="B43" t="s">
@@ -4462,7 +4900,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>335</v>
       </c>
       <c r="B44" t="s">
@@ -4476,7 +4914,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>340</v>
       </c>
       <c r="B45" t="s">
@@ -4507,11 +4945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEEF8A-39E8-413E-87E3-CC48CFCC21D3}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -4787,480 +5225,480 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="11.41015625" style="2"/>
+    <col min="1" max="16384" width="11.3515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5280,1250 +5718,1250 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.76171875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.41015625" style="2"/>
-    <col min="4" max="4" width="19.41015625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.41015625" style="2"/>
+    <col min="1" max="1" width="19.703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.3515625" style="1"/>
+    <col min="4" max="4" width="19.3515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.3515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>200</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>420</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>900</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1300</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>420</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>900</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1300</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>400</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>700</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1100</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1600</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1000</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>2000</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3000</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4000</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>1000</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>2000</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>3000</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>4000</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>4000</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>5000</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>6000</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>8000</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>200</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>420</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>900</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>1300</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>700</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>1400</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>2100</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>6</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>2800</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>2500</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>4000</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>5000</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>6000</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>8000</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>2000</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>4</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>5000</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>2</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>3000</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>3</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>4000</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>4</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>5000</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>5</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>6500</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>50</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>2</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>350</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>3</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>700</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>4</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>1400</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>5</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>2100</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>6</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>2800</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>3</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>1500</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>4</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>2000</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>5</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>2800</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>6</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>3800</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>700</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>1400</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>2100</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>4</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>2800</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>5</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>3500</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>6</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>4200</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>2</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>500</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>3</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>1100</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>4</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>2300</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>200</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>2</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>400</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>3</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>700</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>4</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>1400</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>5</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>2100</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>6</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>2800</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>3</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>3000</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:5" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>4</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>4200</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="185.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:5" ht="185.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>3</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>1200</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:5" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>1</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>600</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="79.849999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:5" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>3</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>1400</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:5" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>5</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>3400</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="52.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:5" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>4</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>7000</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>6</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>14000</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>5</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>50000</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>3</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>7000</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="53.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>5</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>15000</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:4" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>4</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>6000</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>5</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>8000</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>6</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>10000</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>2</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>500</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>3</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>1000</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>4</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>2000</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>5</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>3000</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>98</v>
       </c>
     </row>

--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454CBC8-10E8-4326-959E-ECC5A93122D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE23AA-A812-42C2-970B-6339ED8BB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,29 @@
     <sheet name="Eigenschaften" sheetId="6" r:id="rId3"/>
     <sheet name="Gruppenskills" sheetId="2" r:id="rId4"/>
     <sheet name="TrankeBookdown" sheetId="4" r:id="rId5"/>
+    <sheet name="Beruf Einkommen " sheetId="7" r:id="rId6"/>
+    <sheet name="Schmiedekosten" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Itemliste">'[1]Itemliste_ not_updated'!$A$2:$A$388</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="520">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -1373,6 +1385,231 @@
   </si>
   <si>
     <t>die Besetzung von Yondalla durch das Kaiserreich</t>
+  </si>
+  <si>
+    <t>Zimmerer</t>
+  </si>
+  <si>
+    <t>Zenturio</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Tagelöhner</t>
+  </si>
+  <si>
+    <t>Schuhmacher</t>
+  </si>
+  <si>
+    <t>Schmied</t>
+  </si>
+  <si>
+    <t>Sattler</t>
+  </si>
+  <si>
+    <t>Ruhehofebewahrer</t>
+  </si>
+  <si>
+    <t>Reisender Händler schlecht</t>
+  </si>
+  <si>
+    <t>Reisender Händler gut</t>
+  </si>
+  <si>
+    <t>Priester</t>
+  </si>
+  <si>
+    <t>Offizier</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Metzger</t>
+  </si>
+  <si>
+    <t>Maler</t>
+  </si>
+  <si>
+    <t>Kürschner</t>
+  </si>
+  <si>
+    <t>Korbflechter</t>
+  </si>
+  <si>
+    <t>Käser</t>
+  </si>
+  <si>
+    <t>Jagd schlecht</t>
+  </si>
+  <si>
+    <t>Jagd gut</t>
+  </si>
+  <si>
+    <t>Holzfäller</t>
+  </si>
+  <si>
+    <t>Heiler</t>
+  </si>
+  <si>
+    <t>Gerber</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>Einfacher Soldat</t>
+  </si>
+  <si>
+    <t>Bauer Yondalla</t>
+  </si>
+  <si>
+    <t>Bauer schlecht</t>
+  </si>
+  <si>
+    <t>Bauer gut</t>
+  </si>
+  <si>
+    <t>Armeeheiler</t>
+  </si>
+  <si>
+    <t>Armeealchemist</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>Einkommen/Jahr</t>
+  </si>
+  <si>
+    <t>Einkommen/Monat</t>
+  </si>
+  <si>
+    <t>Einkommen/Woche</t>
+  </si>
+  <si>
+    <t>Einkommen Tag</t>
+  </si>
+  <si>
+    <t>Einkommen/Stunde</t>
+  </si>
+  <si>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>Turmschild</t>
+  </si>
+  <si>
+    <t>Schild</t>
+  </si>
+  <si>
+    <t>Kleines Schild</t>
+  </si>
+  <si>
+    <t>Metallkrallen</t>
+  </si>
+  <si>
+    <t>Faustmesser</t>
+  </si>
+  <si>
+    <t>Schlagring</t>
+  </si>
+  <si>
+    <t>Hellebarde</t>
+  </si>
+  <si>
+    <t>Großspeer/ Pike</t>
+  </si>
+  <si>
+    <t>Speer</t>
+  </si>
+  <si>
+    <t>Kriegshammer</t>
+  </si>
+  <si>
+    <t>Großaxt</t>
+  </si>
+  <si>
+    <t>Großschwert</t>
+  </si>
+  <si>
+    <t>Knüppel</t>
+  </si>
+  <si>
+    <t>Dolch</t>
+  </si>
+  <si>
+    <t>Streitkolben</t>
+  </si>
+  <si>
+    <t>Axt</t>
+  </si>
+  <si>
+    <t>Schwert</t>
+  </si>
+  <si>
+    <t>Schleuder</t>
+  </si>
+  <si>
+    <t>Armbrust</t>
+  </si>
+  <si>
+    <t>Bogen</t>
+  </si>
+  <si>
+    <t>Muskete</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Schmiedaufrüstung</t>
+  </si>
+  <si>
+    <t>Auf höheres Tier Aufrüsten</t>
+  </si>
+  <si>
+    <t>Verbesserungsskosten</t>
+  </si>
+  <si>
+    <t>Rep von 1 auf Max Zustand</t>
+  </si>
+  <si>
+    <t>Reperaturkosten pro +1 Zustand bei Schmied</t>
+  </si>
+  <si>
+    <t>Max Zustand</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>Kosten 1x Material</t>
+  </si>
+  <si>
+    <t>Materialbedarf</t>
+  </si>
+  <si>
+    <t>Kosten bei Kauf</t>
+  </si>
+  <si>
+    <t>Gewicht</t>
+  </si>
+  <si>
+    <t>Gegenstand</t>
+  </si>
+  <si>
+    <t>Leichte Rüstung</t>
+  </si>
+  <si>
+    <t>Mittlere Rüstung</t>
+  </si>
+  <si>
+    <t>Schwere Rüstung</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1650,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,6 +1666,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDF6E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1734,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1520,13 +1763,95 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3509,6 +3834,49 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB47A36-EF59-4629-8A7A-D90388D2DA47}" name="Tabelle2" displayName="Tabelle2" ref="A1:N94" totalsRowShown="0">
+  <autoFilter ref="A1:N94" xr:uid="{43FCEE65-5053-440F-87D7-CD84BE0811AC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Leichte Rüstung"/>
+        <filter val="Mittlere Rüstung"/>
+        <filter val="Schwere Rüstung"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="2" xr3:uid="{9E2C9976-C001-4E9E-B398-2437CAF2303A}" name="Gegenstand" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1CD51572-38E2-4439-9828-C3D1AE45DDDE}" name="Gewicht" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{13405CBC-86E3-4F73-A0C9-E2CBB3F1B97A}" name="Kosten bei Kauf" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6FDE874F-C03A-4DE8-B458-15FC1F0AEC3F}" name="Materialbedarf" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AE9B68B6-4F11-4C14-B43D-DF442BCAFE2E}" name="Kosten 1x Material" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{7D485073-4523-4AC2-A049-CB33300420EC}" name="Materialkosten" dataDxfId="8">
+      <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{896FEFCD-2D38-4359-8D3E-E1BB66BC68FB}" name="Tier" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{ADE7FB1A-F1FE-49D8-B054-D6F046FF9797}" name="Max Zustand" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{1D43DE8B-99FA-491E-A40D-75D82B019F9C}" name="Reperaturkosten pro +1 Zustand bei Schmied" dataDxfId="5">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{BA5C6857-6EDC-4C2A-B437-A1F5CA2A1A3D}" name="Rep von 1 auf Max Zustand" dataDxfId="4">
+      <calculatedColumnFormula>I2*(H2-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{9A41CA1A-30C0-450F-B43E-BDB2032E474C}" name="Verbesserungsskosten" dataDxfId="3">
+      <calculatedColumnFormula>(0.5*E2*D2)+(0.3*1100*SQRT(G2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{C7498DF9-211D-41E8-8868-DE621CDD1D71}" name="Auf höheres Tier Aufrüsten" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8538BE0B-2B04-4389-8F0D-CA1452E021DE}" name="Schmiedaufrüstung" dataDxfId="1">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DE2D47E1-2370-4644-BAFD-CFAC2F8F8081}" name="NF" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3810,18 +4178,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.87890625" customWidth="1"/>
-    <col min="6" max="6" width="45.87890625" customWidth="1"/>
-    <col min="7" max="7" width="22.29296875" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3847,7 +4215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3864,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3887,7 +4255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3904,7 +4272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3921,7 +4289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3938,7 +4306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3955,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>392</v>
       </c>
@@ -3972,7 +4340,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3989,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4006,7 +4374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>395</v>
       </c>
@@ -4029,7 +4397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
@@ -4046,7 +4414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -4063,7 +4431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>401</v>
       </c>
@@ -4080,7 +4448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>404</v>
       </c>
@@ -4097,7 +4465,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>409</v>
       </c>
@@ -4114,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>412</v>
       </c>
@@ -4131,7 +4499,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4148,7 +4516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>434</v>
       </c>
@@ -4165,7 +4533,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>415</v>
       </c>
@@ -4182,7 +4550,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>443</v>
       </c>
@@ -4199,7 +4567,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>424</v>
       </c>
@@ -4216,7 +4584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>419</v>
       </c>
@@ -4233,7 +4601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>444</v>
       </c>
@@ -4250,7 +4618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>426</v>
       </c>
@@ -4267,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>428</v>
       </c>
@@ -4284,7 +4652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4309,7 +4677,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:B26">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4329,14 +4697,14 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3515625" style="11"/>
-    <col min="2" max="2" width="25.3515625" customWidth="1"/>
-    <col min="3" max="3" width="18.3515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="11"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>217</v>
       </c>
@@ -4350,7 +4718,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>229</v>
       </c>
@@ -4364,7 +4732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>230</v>
       </c>
@@ -4375,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>231</v>
       </c>
@@ -4386,7 +4754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>226</v>
       </c>
@@ -4394,7 +4762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>243</v>
       </c>
@@ -4405,7 +4773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>233</v>
       </c>
@@ -4419,7 +4787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>240</v>
       </c>
@@ -4433,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>237</v>
       </c>
@@ -4447,7 +4815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>242</v>
       </c>
@@ -4461,7 +4829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>20.100000000000001</v>
       </c>
@@ -4475,7 +4843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>248</v>
       </c>
@@ -4489,7 +4857,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>251</v>
       </c>
@@ -4503,7 +4871,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>254</v>
       </c>
@@ -4517,7 +4885,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>255</v>
       </c>
@@ -4531,7 +4899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>263</v>
       </c>
@@ -4545,7 +4913,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>21.06</v>
       </c>
@@ -4559,7 +4927,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>265</v>
       </c>
@@ -4570,7 +4938,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>266</v>
       </c>
@@ -4581,7 +4949,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>267</v>
       </c>
@@ -4592,7 +4960,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>269</v>
       </c>
@@ -4603,7 +4971,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>270</v>
       </c>
@@ -4614,7 +4982,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>271</v>
       </c>
@@ -4625,7 +4993,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>272</v>
       </c>
@@ -4636,7 +5004,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>268</v>
       </c>
@@ -4647,7 +5015,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>284</v>
       </c>
@@ -4661,7 +5029,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>285</v>
       </c>
@@ -4675,7 +5043,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>379</v>
       </c>
@@ -4689,7 +5057,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>290</v>
       </c>
@@ -4703,7 +5071,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>292</v>
       </c>
@@ -4717,7 +5085,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>296</v>
       </c>
@@ -4731,7 +5099,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>378</v>
       </c>
@@ -4745,7 +5113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>228</v>
       </c>
@@ -4759,7 +5127,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>375</v>
       </c>
@@ -4773,7 +5141,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>376</v>
       </c>
@@ -4787,7 +5155,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>377</v>
       </c>
@@ -4801,7 +5169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>374</v>
       </c>
@@ -4815,7 +5183,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>373</v>
       </c>
@@ -4829,7 +5197,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>372</v>
       </c>
@@ -4843,7 +5211,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>326</v>
       </c>
@@ -4857,7 +5225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>325</v>
       </c>
@@ -4871,7 +5239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>327</v>
       </c>
@@ -4885,7 +5253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>330</v>
       </c>
@@ -4899,7 +5267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>335</v>
       </c>
@@ -4913,7 +5281,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>340</v>
       </c>
@@ -4930,7 +5298,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
@@ -4949,9 +5317,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -4968,7 +5336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -4979,7 +5347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>380</v>
       </c>
@@ -4993,7 +5361,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5010,7 +5378,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5024,7 +5392,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -5038,7 +5406,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -5055,7 +5423,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>359</v>
       </c>
@@ -5072,7 +5440,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -5086,7 +5454,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -5100,7 +5468,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -5114,7 +5482,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>368</v>
       </c>
@@ -5128,7 +5496,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5142,7 +5510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>381</v>
       </c>
@@ -5156,7 +5524,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>384</v>
       </c>
@@ -5170,7 +5538,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>386</v>
       </c>
@@ -5184,7 +5552,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>388</v>
       </c>
@@ -5198,7 +5566,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -5225,12 +5593,12 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.3515625" style="1"/>
+    <col min="1" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -5268,7 +5636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -5294,7 +5662,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -5320,7 +5688,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -5344,7 +5712,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -5370,7 +5738,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -5398,7 +5766,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -5426,7 +5794,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
@@ -5450,7 +5818,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -5478,7 +5846,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -5504,7 +5872,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -5530,7 +5898,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -5556,7 +5924,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -5582,7 +5950,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -5608,7 +5976,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -5634,7 +6002,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -5658,7 +6026,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5672,7 +6040,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5686,7 +6054,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5714,19 +6082,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3515625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.3515625" style="1"/>
-    <col min="4" max="4" width="19.3515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.3515625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" style="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>216</v>
       </c>
@@ -5743,7 +6111,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -5757,7 +6125,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>208</v>
       </c>
@@ -5771,7 +6139,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
@@ -5785,7 +6153,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>208</v>
       </c>
@@ -5799,7 +6167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>200</v>
       </c>
@@ -5816,7 +6184,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
@@ -5833,7 +6201,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>200</v>
       </c>
@@ -5850,7 +6218,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>200</v>
       </c>
@@ -5867,7 +6235,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>194</v>
       </c>
@@ -5881,7 +6249,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -5895,7 +6263,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>194</v>
       </c>
@@ -5909,7 +6277,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>194</v>
       </c>
@@ -5923,7 +6291,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>189</v>
       </c>
@@ -5937,7 +6305,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -5951,7 +6319,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
@@ -5965,7 +6333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>189</v>
       </c>
@@ -5979,7 +6347,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
@@ -5993,7 +6361,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
@@ -6007,7 +6375,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>184</v>
       </c>
@@ -6021,7 +6389,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>184</v>
       </c>
@@ -6035,7 +6403,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>179</v>
       </c>
@@ -6049,7 +6417,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -6063,7 +6431,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>179</v>
       </c>
@@ -6077,7 +6445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -6091,7 +6459,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>174</v>
       </c>
@@ -6105,7 +6473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>174</v>
       </c>
@@ -6119,7 +6487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>174</v>
       </c>
@@ -6133,7 +6501,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
@@ -6147,7 +6515,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>169</v>
       </c>
@@ -6161,7 +6529,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>169</v>
       </c>
@@ -6175,7 +6543,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>169</v>
       </c>
@@ -6189,7 +6557,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -6203,7 +6571,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>167</v>
       </c>
@@ -6217,7 +6585,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>162</v>
       </c>
@@ -6225,13 +6593,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="3">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>162</v>
       </c>
@@ -6239,13 +6607,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="4">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>162</v>
       </c>
@@ -6253,13 +6621,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>162</v>
       </c>
@@ -6267,13 +6635,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="4">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>159</v>
       </c>
@@ -6281,13 +6649,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>159</v>
       </c>
@@ -6295,13 +6663,13 @@
         <v>4</v>
       </c>
       <c r="C40" s="4">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -6309,13 +6677,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>154</v>
       </c>
@@ -6329,7 +6697,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -6343,7 +6711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -6357,7 +6725,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>152</v>
       </c>
@@ -6369,7 +6737,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>152</v>
       </c>
@@ -6381,7 +6749,7 @@
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
@@ -6393,7 +6761,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>152</v>
       </c>
@@ -6405,7 +6773,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>152</v>
       </c>
@@ -6417,7 +6785,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>152</v>
       </c>
@@ -6429,7 +6797,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>148</v>
       </c>
@@ -6443,7 +6811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>148</v>
       </c>
@@ -6457,7 +6825,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>148</v>
       </c>
@@ -6471,7 +6839,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>148</v>
       </c>
@@ -6485,7 +6853,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>141</v>
       </c>
@@ -6499,7 +6867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>141</v>
       </c>
@@ -6513,7 +6881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>141</v>
       </c>
@@ -6527,7 +6895,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
@@ -6541,7 +6909,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>141</v>
       </c>
@@ -6555,7 +6923,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>141</v>
       </c>
@@ -6569,7 +6937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>137</v>
       </c>
@@ -6586,7 +6954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>137</v>
       </c>
@@ -6603,7 +6971,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>137</v>
       </c>
@@ -6620,7 +6988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
@@ -6634,7 +7002,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -6648,7 +7016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>129</v>
       </c>
@@ -6662,7 +7030,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -6676,7 +7044,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>129</v>
       </c>
@@ -6690,7 +7058,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>129</v>
       </c>
@@ -6704,7 +7072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>127</v>
       </c>
@@ -6718,7 +7086,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
@@ -6735,7 +7103,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="185.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="185.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>122</v>
       </c>
@@ -6749,7 +7117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
@@ -6763,7 +7131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>118</v>
       </c>
@@ -6777,7 +7145,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>118</v>
       </c>
@@ -6791,7 +7159,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>115</v>
       </c>
@@ -6799,13 +7167,13 @@
         <v>4</v>
       </c>
       <c r="C76" s="4">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>115</v>
       </c>
@@ -6813,13 +7181,13 @@
         <v>6</v>
       </c>
       <c r="C77" s="3">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
@@ -6833,7 +7201,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>109</v>
       </c>
@@ -6841,7 +7209,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="8">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>111</v>
@@ -6850,7 +7218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="53.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>109</v>
       </c>
@@ -6858,7 +7226,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="6">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>108</v>
@@ -6867,7 +7235,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
@@ -6875,13 +7243,13 @@
         <v>4</v>
       </c>
       <c r="C81" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>104</v>
       </c>
@@ -6889,13 +7257,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="4">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>104</v>
       </c>
@@ -6909,7 +7277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>99</v>
       </c>
@@ -6923,7 +7291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>99</v>
       </c>
@@ -6937,7 +7305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>99</v>
       </c>
@@ -6951,7 +7319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="25.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -6973,4 +7341,5279 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA995A-94D3-4F12-9B21-FB0184D3D47F}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="12">
+        <f t="shared" ref="B2:B32" si="0">C2/8</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="C2" s="12">
+        <f t="shared" ref="C2:C32" si="1">E2/30</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:D32" si="2">E2/4</f>
+        <v>1250</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F32" si="3">E2*12</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E3" s="12">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="3"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="12">
+        <f t="shared" si="0"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="1"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="1"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3500</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4500</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>15.416666666666666</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="1"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6000</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="1"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4500</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="1"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="1"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="E23" s="12">
+        <v>7000</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>451</v>
+      </c>
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="3"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="1"/>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4400</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="3"/>
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="1"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="E28" s="12">
+        <v>3500</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="3"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="3"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2500</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="E31" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="1"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="2"/>
+        <v>875</v>
+      </c>
+      <c r="E32" s="12">
+        <v>3500</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="3"/>
+        <v>42000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B249C45-CD83-4130-ABC7-96319CC48F44}">
+  <dimension ref="A1:O94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K20" sqref="K20:N68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="37.88671875" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="24.44140625" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="19.5546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="14">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14">
+        <v>12500</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="14">
+        <f t="shared" ref="F2:F21" si="0">E2*D2</f>
+        <v>2500</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>892.85714285714289</v>
+      </c>
+      <c r="J2" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6250</v>
+      </c>
+      <c r="K2" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8750</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="J3" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="K3" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>3500</v>
+      </c>
+      <c r="L3" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>9600</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C26</f>
+        <v>-8000</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C26</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="J4" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="K4" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>3500</v>
+      </c>
+      <c r="L4" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>9600</v>
+      </c>
+      <c r="M4" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C27</f>
+        <v>-8000</v>
+      </c>
+      <c r="N4" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C27</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="J5" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1250</v>
+      </c>
+      <c r="K5" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>1750</v>
+      </c>
+      <c r="L5" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>4800</v>
+      </c>
+      <c r="M5" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C28</f>
+        <v>-4000</v>
+      </c>
+      <c r="N5" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C28</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>7</v>
+      </c>
+      <c r="I6" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="J6" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="K6" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>3500</v>
+      </c>
+      <c r="L6" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>9600</v>
+      </c>
+      <c r="M6" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C29</f>
+        <v>-8000</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C29</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>7</v>
+      </c>
+      <c r="I7" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="J7" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="K7" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>3500</v>
+      </c>
+      <c r="L7" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>9600</v>
+      </c>
+      <c r="M7" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C30</f>
+        <v>-8000</v>
+      </c>
+      <c r="N7" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C30</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>7</v>
+      </c>
+      <c r="I8" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="J8" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2500</v>
+      </c>
+      <c r="K8" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>3500</v>
+      </c>
+      <c r="L8" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>9600</v>
+      </c>
+      <c r="M8" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C31</f>
+        <v>-8000</v>
+      </c>
+      <c r="N8" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C31</f>
+        <v>1600</v>
+      </c>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>7</v>
+      </c>
+      <c r="I9" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="J9" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1000</v>
+      </c>
+      <c r="K9" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>1400</v>
+      </c>
+      <c r="L9" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>3840</v>
+      </c>
+      <c r="M9" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C32</f>
+        <v>-3200</v>
+      </c>
+      <c r="N9" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C32</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>7</v>
+      </c>
+      <c r="I10" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="J10" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1250</v>
+      </c>
+      <c r="K10" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>1750</v>
+      </c>
+      <c r="L10" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>4800</v>
+      </c>
+      <c r="M10" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C33</f>
+        <v>-4000</v>
+      </c>
+      <c r="N10" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C33</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6500</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>7</v>
+      </c>
+      <c r="I11" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>464.28571428571428</v>
+      </c>
+      <c r="J11" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3250</v>
+      </c>
+      <c r="K11" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4550</v>
+      </c>
+      <c r="L11" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12480</v>
+      </c>
+      <c r="M11" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C34</f>
+        <v>-10400</v>
+      </c>
+      <c r="N11" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C34</f>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6500</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7</v>
+      </c>
+      <c r="I12" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>464.28571428571428</v>
+      </c>
+      <c r="J12" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3250</v>
+      </c>
+      <c r="K12" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4550</v>
+      </c>
+      <c r="L12" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12480</v>
+      </c>
+      <c r="M12" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C35</f>
+        <v>-10400</v>
+      </c>
+      <c r="N12" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C35</f>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" s="16">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14">
+        <v>6500</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>7</v>
+      </c>
+      <c r="I13" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>464.28571428571428</v>
+      </c>
+      <c r="J13" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3250</v>
+      </c>
+      <c r="K13" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4550</v>
+      </c>
+      <c r="L13" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12480</v>
+      </c>
+      <c r="M13" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C36</f>
+        <v>-10400</v>
+      </c>
+      <c r="N13" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C36</f>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14">
+        <v>4000</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>7</v>
+      </c>
+      <c r="I14" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J14" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2000</v>
+      </c>
+      <c r="K14" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>2800</v>
+      </c>
+      <c r="L14" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>7680</v>
+      </c>
+      <c r="M14" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C37</f>
+        <v>-6400</v>
+      </c>
+      <c r="N14" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C37</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" s="14">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>7</v>
+      </c>
+      <c r="I15" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>214.28571428571428</v>
+      </c>
+      <c r="J15" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1500</v>
+      </c>
+      <c r="K15" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>2100</v>
+      </c>
+      <c r="L15" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>5760</v>
+      </c>
+      <c r="M15" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C38</f>
+        <v>-4800</v>
+      </c>
+      <c r="N15" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C38</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="14">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14">
+        <v>7000</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>7</v>
+      </c>
+      <c r="I16" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>500</v>
+      </c>
+      <c r="J16" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3500</v>
+      </c>
+      <c r="K16" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4900</v>
+      </c>
+      <c r="L16" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>13440</v>
+      </c>
+      <c r="M16" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C39</f>
+        <v>-11200</v>
+      </c>
+      <c r="N16" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C39</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>7</v>
+      </c>
+      <c r="I17" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="J17" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1000</v>
+      </c>
+      <c r="K17" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>1400</v>
+      </c>
+      <c r="L17" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>3840</v>
+      </c>
+      <c r="M17" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C40</f>
+        <v>-3200</v>
+      </c>
+      <c r="N17" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C40</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4000</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>7</v>
+      </c>
+      <c r="I18" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J18" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2000</v>
+      </c>
+      <c r="K18" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>2800</v>
+      </c>
+      <c r="L18" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>7680</v>
+      </c>
+      <c r="M18" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C41</f>
+        <v>-6400</v>
+      </c>
+      <c r="N18" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C41</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>6500</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>7</v>
+      </c>
+      <c r="I19" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>464.28571428571428</v>
+      </c>
+      <c r="J19" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3250</v>
+      </c>
+      <c r="K19" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4550</v>
+      </c>
+      <c r="L19" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12480</v>
+      </c>
+      <c r="M19" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C42</f>
+        <v>-10400</v>
+      </c>
+      <c r="N19" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C42</f>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7</v>
+      </c>
+      <c r="I20" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="J20" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1000</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>7</v>
+      </c>
+      <c r="I21" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>214.28571428571428</v>
+      </c>
+      <c r="J21" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1500</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" s="14">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4000</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" ref="F22:F44" si="1">E22*D22</f>
+        <v>800</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>7</v>
+      </c>
+      <c r="I22" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J22" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2000</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>7</v>
+      </c>
+      <c r="I23" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="J23" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1000</v>
+      </c>
+      <c r="K23" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>1400</v>
+      </c>
+      <c r="L23" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>3840</v>
+      </c>
+      <c r="M23" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C46</f>
+        <v>-3200</v>
+      </c>
+      <c r="N23" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C46</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>7</v>
+      </c>
+      <c r="I24" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>214.28571428571428</v>
+      </c>
+      <c r="J24" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>1500</v>
+      </c>
+      <c r="K24" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>2100</v>
+      </c>
+      <c r="L24" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>5760</v>
+      </c>
+      <c r="M24" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C47</f>
+        <v>-4800</v>
+      </c>
+      <c r="N24" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C47</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" s="14">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4000</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>7</v>
+      </c>
+      <c r="I25" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J25" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>2000</v>
+      </c>
+      <c r="K25" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>2800</v>
+      </c>
+      <c r="L25" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>7680</v>
+      </c>
+      <c r="M25" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C48</f>
+        <v>-6400</v>
+      </c>
+      <c r="N25" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C48</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G26" s="13">
+        <v>2</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J26" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K26" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L26" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M26" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C49</f>
+        <v>-9000</v>
+      </c>
+      <c r="N26" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C49</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G27" s="13">
+        <v>2</v>
+      </c>
+      <c r="H27" s="13">
+        <v>10</v>
+      </c>
+      <c r="I27" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J27" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K27" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L27" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M27" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C50</f>
+        <v>-9000</v>
+      </c>
+      <c r="N27" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C50</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="G28" s="13">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13">
+        <v>10</v>
+      </c>
+      <c r="I28" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>375</v>
+      </c>
+      <c r="J28" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3750</v>
+      </c>
+      <c r="K28" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>5250</v>
+      </c>
+      <c r="L28" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>5400</v>
+      </c>
+      <c r="M28" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C51</f>
+        <v>-4500</v>
+      </c>
+      <c r="N28" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C51</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G29" s="13">
+        <v>2</v>
+      </c>
+      <c r="H29" s="13">
+        <v>10</v>
+      </c>
+      <c r="I29" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J29" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K29" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L29" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M29" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C52</f>
+        <v>-9000</v>
+      </c>
+      <c r="N29" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C52</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B30" s="16">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G30" s="13">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <v>10</v>
+      </c>
+      <c r="I30" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J30" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K30" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L30" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M30" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C53</f>
+        <v>-9000</v>
+      </c>
+      <c r="N30" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C53</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" s="16">
+        <v>3</v>
+      </c>
+      <c r="C31" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G31" s="13">
+        <v>2</v>
+      </c>
+      <c r="H31" s="13">
+        <v>10</v>
+      </c>
+      <c r="I31" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J31" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K31" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L31" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M31" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C54</f>
+        <v>-9000</v>
+      </c>
+      <c r="N31" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C54</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G32" s="13">
+        <v>2</v>
+      </c>
+      <c r="H32" s="13">
+        <v>10</v>
+      </c>
+      <c r="I32" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>300</v>
+      </c>
+      <c r="J32" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3000</v>
+      </c>
+      <c r="K32" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4200</v>
+      </c>
+      <c r="L32" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>4320</v>
+      </c>
+      <c r="M32" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C55</f>
+        <v>-3600</v>
+      </c>
+      <c r="N32" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C55</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="G33" s="13">
+        <v>2</v>
+      </c>
+      <c r="H33" s="13">
+        <v>10</v>
+      </c>
+      <c r="I33" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>375</v>
+      </c>
+      <c r="J33" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3750</v>
+      </c>
+      <c r="K33" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>5250</v>
+      </c>
+      <c r="L33" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>5400</v>
+      </c>
+      <c r="M33" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C56</f>
+        <v>-4500</v>
+      </c>
+      <c r="N33" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C56</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34" s="16">
+        <v>3</v>
+      </c>
+      <c r="C34" s="14">
+        <v>19500</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+      <c r="G34" s="13">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13">
+        <v>10</v>
+      </c>
+      <c r="I34" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>975</v>
+      </c>
+      <c r="J34" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9750</v>
+      </c>
+      <c r="K34" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>13650</v>
+      </c>
+      <c r="L34" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>14040</v>
+      </c>
+      <c r="M34" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C57</f>
+        <v>-11700</v>
+      </c>
+      <c r="N34" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C57</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B35" s="16">
+        <v>5</v>
+      </c>
+      <c r="C35" s="14">
+        <v>19500</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2</v>
+      </c>
+      <c r="H35" s="13">
+        <v>10</v>
+      </c>
+      <c r="I35" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>975</v>
+      </c>
+      <c r="J35" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9750</v>
+      </c>
+      <c r="K35" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>13650</v>
+      </c>
+      <c r="L35" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>14040</v>
+      </c>
+      <c r="M35" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C58</f>
+        <v>-11700</v>
+      </c>
+      <c r="N35" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C58</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" s="16">
+        <v>8</v>
+      </c>
+      <c r="C36" s="14">
+        <v>19500</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+      <c r="G36" s="13">
+        <v>2</v>
+      </c>
+      <c r="H36" s="13">
+        <v>10</v>
+      </c>
+      <c r="I36" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>975</v>
+      </c>
+      <c r="J36" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9750</v>
+      </c>
+      <c r="K36" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>13650</v>
+      </c>
+      <c r="L36" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>14040</v>
+      </c>
+      <c r="M36" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C59</f>
+        <v>-11700</v>
+      </c>
+      <c r="N36" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C59</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37" s="14">
+        <v>3</v>
+      </c>
+      <c r="C37" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E37" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="G37" s="13">
+        <v>2</v>
+      </c>
+      <c r="H37" s="13">
+        <v>10</v>
+      </c>
+      <c r="I37" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J37" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K37" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L37" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M37" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C60</f>
+        <v>-7200</v>
+      </c>
+      <c r="N37" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C60</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="14">
+        <v>5</v>
+      </c>
+      <c r="C38" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="G38" s="13">
+        <v>2</v>
+      </c>
+      <c r="H38" s="13">
+        <v>10</v>
+      </c>
+      <c r="I38" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>450</v>
+      </c>
+      <c r="J38" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>4500</v>
+      </c>
+      <c r="K38" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>6300</v>
+      </c>
+      <c r="L38" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>6480</v>
+      </c>
+      <c r="M38" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C61</f>
+        <v>-5400</v>
+      </c>
+      <c r="N38" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C61</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B39" s="14">
+        <v>7</v>
+      </c>
+      <c r="C39" s="14">
+        <v>21000</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E39" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="G39" s="13">
+        <v>2</v>
+      </c>
+      <c r="H39" s="13">
+        <v>10</v>
+      </c>
+      <c r="I39" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1050</v>
+      </c>
+      <c r="J39" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>10500</v>
+      </c>
+      <c r="K39" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>14699.999999999998</v>
+      </c>
+      <c r="L39" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>15120.000000000004</v>
+      </c>
+      <c r="M39" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C62</f>
+        <v>-12600.000000000004</v>
+      </c>
+      <c r="N39" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C62</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G40" s="13">
+        <v>2</v>
+      </c>
+      <c r="H40" s="13">
+        <v>10</v>
+      </c>
+      <c r="I40" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>300</v>
+      </c>
+      <c r="J40" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3000</v>
+      </c>
+      <c r="K40" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4200</v>
+      </c>
+      <c r="L40" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>4320</v>
+      </c>
+      <c r="M40" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C63</f>
+        <v>-3600</v>
+      </c>
+      <c r="N40" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C63</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="G41" s="13">
+        <v>2</v>
+      </c>
+      <c r="H41" s="13">
+        <v>10</v>
+      </c>
+      <c r="I41" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J41" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K41" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L41" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M41" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C64</f>
+        <v>-7200</v>
+      </c>
+      <c r="N41" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C64</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14">
+        <v>19500</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E42" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+      <c r="G42" s="13">
+        <v>2</v>
+      </c>
+      <c r="H42" s="13">
+        <v>10</v>
+      </c>
+      <c r="I42" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>975</v>
+      </c>
+      <c r="J42" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9750</v>
+      </c>
+      <c r="K42" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>13650</v>
+      </c>
+      <c r="L42" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>14040</v>
+      </c>
+      <c r="M42" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C65</f>
+        <v>-11700</v>
+      </c>
+      <c r="N42" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C65</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E43" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G43" s="13">
+        <v>2</v>
+      </c>
+      <c r="H43" s="13">
+        <v>10</v>
+      </c>
+      <c r="I43" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>300</v>
+      </c>
+      <c r="J43" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3000</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" s="14">
+        <v>3</v>
+      </c>
+      <c r="C44" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="G44" s="13">
+        <v>2</v>
+      </c>
+      <c r="H44" s="13">
+        <v>10</v>
+      </c>
+      <c r="I44" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>450</v>
+      </c>
+      <c r="J44" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>4500</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="14">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" ref="F45:F66" si="2">E45*D45</f>
+        <v>2400</v>
+      </c>
+      <c r="G45" s="13">
+        <v>2</v>
+      </c>
+      <c r="H45" s="13">
+        <v>10</v>
+      </c>
+      <c r="I45" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J45" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E46" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="G46" s="13">
+        <v>2</v>
+      </c>
+      <c r="H46" s="13">
+        <v>10</v>
+      </c>
+      <c r="I46" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>300</v>
+      </c>
+      <c r="J46" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>3000</v>
+      </c>
+      <c r="K46" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4200</v>
+      </c>
+      <c r="L46" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>4320</v>
+      </c>
+      <c r="M46" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C69</f>
+        <v>-3600</v>
+      </c>
+      <c r="N46" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C69</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B47" s="14">
+        <v>3</v>
+      </c>
+      <c r="C47" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="G47" s="13">
+        <v>2</v>
+      </c>
+      <c r="H47" s="13">
+        <v>10</v>
+      </c>
+      <c r="I47" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>450</v>
+      </c>
+      <c r="J47" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>4500</v>
+      </c>
+      <c r="K47" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>6300</v>
+      </c>
+      <c r="L47" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>6480</v>
+      </c>
+      <c r="M47" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C70</f>
+        <v>-5400</v>
+      </c>
+      <c r="N47" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C70</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" s="14">
+        <v>8</v>
+      </c>
+      <c r="C48" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="G48" s="13">
+        <v>2</v>
+      </c>
+      <c r="H48" s="13">
+        <v>10</v>
+      </c>
+      <c r="I48" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J48" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K48" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L48" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M48" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C71</f>
+        <v>-7200</v>
+      </c>
+      <c r="N48" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C71</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D49" s="14">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G49" s="13">
+        <v>3</v>
+      </c>
+      <c r="H49" s="13">
+        <v>14</v>
+      </c>
+      <c r="I49" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="J49" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K49" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L49" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>21600</v>
+      </c>
+      <c r="M49" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C72</f>
+        <v>-18000</v>
+      </c>
+      <c r="N49" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C72</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" s="14">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>3</v>
+      </c>
+      <c r="H50" s="13">
+        <v>14</v>
+      </c>
+      <c r="I50" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="J50" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K50" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L50" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>21600</v>
+      </c>
+      <c r="M50" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C73</f>
+        <v>-18000</v>
+      </c>
+      <c r="N50" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C73</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3</v>
+      </c>
+      <c r="H51" s="13">
+        <v>14</v>
+      </c>
+      <c r="I51" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>535.71428571428567</v>
+      </c>
+      <c r="J51" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K51" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L51" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M51" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C74</f>
+        <v>-9000</v>
+      </c>
+      <c r="N51" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C74</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" s="16">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G52" s="13">
+        <v>3</v>
+      </c>
+      <c r="H52" s="13">
+        <v>14</v>
+      </c>
+      <c r="I52" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="J52" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K52" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L52" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>21600</v>
+      </c>
+      <c r="M52" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C75</f>
+        <v>-18000</v>
+      </c>
+      <c r="N52" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C75</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B53" s="16">
+        <v>2</v>
+      </c>
+      <c r="C53" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G53" s="13">
+        <v>3</v>
+      </c>
+      <c r="H53" s="13">
+        <v>14</v>
+      </c>
+      <c r="I53" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="J53" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K53" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L53" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>21600</v>
+      </c>
+      <c r="M53" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C76</f>
+        <v>-18000</v>
+      </c>
+      <c r="N53" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C76</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B54" s="16">
+        <v>3</v>
+      </c>
+      <c r="C54" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G54" s="13">
+        <v>3</v>
+      </c>
+      <c r="H54" s="13">
+        <v>14</v>
+      </c>
+      <c r="I54" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="J54" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K54" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L54" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>21600</v>
+      </c>
+      <c r="M54" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C77</f>
+        <v>-18000</v>
+      </c>
+      <c r="N54" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C77</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B55" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E55" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="G55" s="13">
+        <v>3</v>
+      </c>
+      <c r="H55" s="13">
+        <v>14</v>
+      </c>
+      <c r="I55" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="J55" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K55" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L55" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M55" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C78</f>
+        <v>-7200</v>
+      </c>
+      <c r="N55" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C78</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="G56" s="13">
+        <v>3</v>
+      </c>
+      <c r="H56" s="13">
+        <v>14</v>
+      </c>
+      <c r="I56" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>535.71428571428567</v>
+      </c>
+      <c r="J56" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K56" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L56" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M56" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C79</f>
+        <v>-9000</v>
+      </c>
+      <c r="N56" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C79</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B57" s="16">
+        <v>3</v>
+      </c>
+      <c r="C57" s="14">
+        <v>39000</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E57" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="G57" s="13">
+        <v>3</v>
+      </c>
+      <c r="H57" s="13">
+        <v>14</v>
+      </c>
+      <c r="I57" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1392.8571428571429</v>
+      </c>
+      <c r="J57" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>19500</v>
+      </c>
+      <c r="K57" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>27300</v>
+      </c>
+      <c r="L57" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>28080</v>
+      </c>
+      <c r="M57" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C80</f>
+        <v>-23400</v>
+      </c>
+      <c r="N57" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C80</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="16">
+        <v>5</v>
+      </c>
+      <c r="C58" s="14">
+        <v>39000</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E58" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="G58" s="13">
+        <v>3</v>
+      </c>
+      <c r="H58" s="13">
+        <v>14</v>
+      </c>
+      <c r="I58" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1392.8571428571429</v>
+      </c>
+      <c r="J58" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>19500</v>
+      </c>
+      <c r="K58" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>27300</v>
+      </c>
+      <c r="L58" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>28080</v>
+      </c>
+      <c r="M58" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C81</f>
+        <v>-23400</v>
+      </c>
+      <c r="N58" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C81</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B59" s="16">
+        <v>8</v>
+      </c>
+      <c r="C59" s="14">
+        <v>39000</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E59" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="G59" s="13">
+        <v>3</v>
+      </c>
+      <c r="H59" s="13">
+        <v>14</v>
+      </c>
+      <c r="I59" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1392.8571428571429</v>
+      </c>
+      <c r="J59" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>19500</v>
+      </c>
+      <c r="K59" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>27300</v>
+      </c>
+      <c r="L59" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>28080</v>
+      </c>
+      <c r="M59" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C82</f>
+        <v>-23400</v>
+      </c>
+      <c r="N59" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C82</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="14">
+        <v>3</v>
+      </c>
+      <c r="C60" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E60" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="G60" s="13">
+        <v>3</v>
+      </c>
+      <c r="H60" s="13">
+        <v>14</v>
+      </c>
+      <c r="I60" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>857.14285714285711</v>
+      </c>
+      <c r="J60" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K60" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
+      <c r="L60" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>17280</v>
+      </c>
+      <c r="M60" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C83</f>
+        <v>-14400</v>
+      </c>
+      <c r="N60" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C83</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B61" s="14">
+        <v>5</v>
+      </c>
+      <c r="C61" s="14">
+        <v>18000</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E61" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="G61" s="13">
+        <v>3</v>
+      </c>
+      <c r="H61" s="13">
+        <v>14</v>
+      </c>
+      <c r="I61" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>642.85714285714289</v>
+      </c>
+      <c r="J61" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9000</v>
+      </c>
+      <c r="K61" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>12600</v>
+      </c>
+      <c r="L61" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12960</v>
+      </c>
+      <c r="M61" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C84</f>
+        <v>-10800</v>
+      </c>
+      <c r="N61" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C84</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B62" s="14">
+        <v>7</v>
+      </c>
+      <c r="C62" s="14">
+        <v>42000</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E62" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="G62" s="13">
+        <v>3</v>
+      </c>
+      <c r="H62" s="13">
+        <v>14</v>
+      </c>
+      <c r="I62" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J62" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>21000</v>
+      </c>
+      <c r="K62" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>29399.999999999996</v>
+      </c>
+      <c r="L62" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>30240.000000000007</v>
+      </c>
+      <c r="M62" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C85</f>
+        <v>-25200.000000000007</v>
+      </c>
+      <c r="N62" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C85</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C63" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E63" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="G63" s="13">
+        <v>3</v>
+      </c>
+      <c r="H63" s="13">
+        <v>14</v>
+      </c>
+      <c r="I63" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="J63" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K63" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L63" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M63" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C86</f>
+        <v>-7200</v>
+      </c>
+      <c r="N63" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C86</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B64" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C64" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E64" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="G64" s="13">
+        <v>3</v>
+      </c>
+      <c r="H64" s="13">
+        <v>14</v>
+      </c>
+      <c r="I64" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>857.14285714285711</v>
+      </c>
+      <c r="J64" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K64" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
+      <c r="L64" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>17280</v>
+      </c>
+      <c r="M64" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C87</f>
+        <v>-14400</v>
+      </c>
+      <c r="N64" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C87</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="14">
+        <v>39000</v>
+      </c>
+      <c r="D65" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E65" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="G65" s="13">
+        <v>3</v>
+      </c>
+      <c r="H65" s="13">
+        <v>14</v>
+      </c>
+      <c r="I65" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1392.8571428571429</v>
+      </c>
+      <c r="J65" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>19500</v>
+      </c>
+      <c r="K65" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>27300</v>
+      </c>
+      <c r="L65" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>28080</v>
+      </c>
+      <c r="M65" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C88</f>
+        <v>-23400</v>
+      </c>
+      <c r="N65" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C88</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C66" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E66" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="14">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="G66" s="13">
+        <v>3</v>
+      </c>
+      <c r="H66" s="13">
+        <v>14</v>
+      </c>
+      <c r="I66" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="J66" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B67" s="14">
+        <v>3</v>
+      </c>
+      <c r="C67" s="14">
+        <v>18000</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E67" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" ref="F67:F88" si="3">E67*D67</f>
+        <v>3600</v>
+      </c>
+      <c r="G67" s="13">
+        <v>3</v>
+      </c>
+      <c r="H67" s="13">
+        <v>14</v>
+      </c>
+      <c r="I67" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>642.85714285714289</v>
+      </c>
+      <c r="J67" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9000</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" s="14">
+        <v>5</v>
+      </c>
+      <c r="C68" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E68" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="G68" s="13">
+        <v>3</v>
+      </c>
+      <c r="H68" s="13">
+        <v>14</v>
+      </c>
+      <c r="I68" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>857.14285714285711</v>
+      </c>
+      <c r="J68" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1</v>
+      </c>
+      <c r="C69" s="14">
+        <v>12000</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E69" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G69" s="13">
+        <v>3</v>
+      </c>
+      <c r="H69" s="13">
+        <v>14</v>
+      </c>
+      <c r="I69" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="J69" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>6000</v>
+      </c>
+      <c r="K69" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L69" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M69" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C92</f>
+        <v>-7200</v>
+      </c>
+      <c r="N69" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C92</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B70" s="14">
+        <v>3</v>
+      </c>
+      <c r="C70" s="14">
+        <v>18000</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E70" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F70" s="14">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="G70" s="13">
+        <v>3</v>
+      </c>
+      <c r="H70" s="13">
+        <v>14</v>
+      </c>
+      <c r="I70" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>642.85714285714289</v>
+      </c>
+      <c r="J70" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>9000</v>
+      </c>
+      <c r="K70" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>12600</v>
+      </c>
+      <c r="L70" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12960</v>
+      </c>
+      <c r="M70" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C93</f>
+        <v>-10800</v>
+      </c>
+      <c r="N70" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C93</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B71" s="14">
+        <v>8</v>
+      </c>
+      <c r="C71" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E71" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="G71" s="13">
+        <v>3</v>
+      </c>
+      <c r="H71" s="13">
+        <v>14</v>
+      </c>
+      <c r="I71" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>857.14285714285711</v>
+      </c>
+      <c r="J71" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K71" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
+      <c r="L71" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>17280</v>
+      </c>
+      <c r="M71" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C94</f>
+        <v>-14400</v>
+      </c>
+      <c r="N71" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C94</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1</v>
+      </c>
+      <c r="C72" s="14">
+        <v>60000</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1</v>
+      </c>
+      <c r="E72" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F72" s="14">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G72" s="13">
+        <v>4</v>
+      </c>
+      <c r="H72" s="13">
+        <v>20</v>
+      </c>
+      <c r="I72" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J72" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>30000</v>
+      </c>
+      <c r="K72" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>42000</v>
+      </c>
+      <c r="L72" s="15"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B73" s="14">
+        <v>2</v>
+      </c>
+      <c r="C73" s="14">
+        <v>60000</v>
+      </c>
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F73" s="14">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G73" s="13">
+        <v>4</v>
+      </c>
+      <c r="H73" s="13">
+        <v>20</v>
+      </c>
+      <c r="I73" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J73" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>30000</v>
+      </c>
+      <c r="K73" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>42000</v>
+      </c>
+      <c r="L73" s="15"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F74" s="14">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="G74" s="13">
+        <v>4</v>
+      </c>
+      <c r="H74" s="13">
+        <v>20</v>
+      </c>
+      <c r="I74" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J74" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K74" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L74" s="15"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B75" s="16">
+        <v>1</v>
+      </c>
+      <c r="C75" s="14">
+        <v>60000</v>
+      </c>
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+      <c r="E75" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G75" s="13">
+        <v>4</v>
+      </c>
+      <c r="H75" s="13">
+        <v>20</v>
+      </c>
+      <c r="I75" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J75" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>30000</v>
+      </c>
+      <c r="K75" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>42000</v>
+      </c>
+      <c r="L75" s="15"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B76" s="16">
+        <v>2</v>
+      </c>
+      <c r="C76" s="14">
+        <v>60000</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1</v>
+      </c>
+      <c r="E76" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F76" s="14">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G76" s="13">
+        <v>4</v>
+      </c>
+      <c r="H76" s="13">
+        <v>20</v>
+      </c>
+      <c r="I76" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J76" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>30000</v>
+      </c>
+      <c r="K76" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>42000</v>
+      </c>
+      <c r="L76" s="15"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" s="16">
+        <v>3</v>
+      </c>
+      <c r="C77" s="14">
+        <v>60000</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+      <c r="E77" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G77" s="13">
+        <v>4</v>
+      </c>
+      <c r="H77" s="13">
+        <v>20</v>
+      </c>
+      <c r="I77" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1500</v>
+      </c>
+      <c r="J77" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>30000</v>
+      </c>
+      <c r="K77" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>42000</v>
+      </c>
+      <c r="L77" s="15"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B78" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C78" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E78" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F78" s="14">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="G78" s="13">
+        <v>4</v>
+      </c>
+      <c r="H78" s="13">
+        <v>20</v>
+      </c>
+      <c r="I78" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J78" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K78" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
+      <c r="L78" s="15"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B79" s="16">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F79" s="14">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="G79" s="13">
+        <v>4</v>
+      </c>
+      <c r="H79" s="13">
+        <v>20</v>
+      </c>
+      <c r="I79" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J79" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K79" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L79" s="15"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B80" s="16">
+        <v>3</v>
+      </c>
+      <c r="C80" s="14">
+        <v>78000</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E80" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F80" s="14">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+      <c r="G80" s="13">
+        <v>4</v>
+      </c>
+      <c r="H80" s="13">
+        <v>20</v>
+      </c>
+      <c r="I80" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1950</v>
+      </c>
+      <c r="J80" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>39000</v>
+      </c>
+      <c r="K80" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>54600</v>
+      </c>
+      <c r="L80" s="15"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B81" s="16">
+        <v>5</v>
+      </c>
+      <c r="C81" s="14">
+        <v>78000</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E81" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+      <c r="G81" s="13">
+        <v>4</v>
+      </c>
+      <c r="H81" s="13">
+        <v>20</v>
+      </c>
+      <c r="I81" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1950</v>
+      </c>
+      <c r="J81" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>39000</v>
+      </c>
+      <c r="K81" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>54600</v>
+      </c>
+      <c r="L81" s="15"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82" s="16">
+        <v>8</v>
+      </c>
+      <c r="C82" s="14">
+        <v>78000</v>
+      </c>
+      <c r="D82" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E82" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F82" s="14">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+      <c r="G82" s="13">
+        <v>4</v>
+      </c>
+      <c r="H82" s="13">
+        <v>20</v>
+      </c>
+      <c r="I82" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1950</v>
+      </c>
+      <c r="J82" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>39000</v>
+      </c>
+      <c r="K82" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>54600</v>
+      </c>
+      <c r="L82" s="15"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B83" s="14">
+        <v>3</v>
+      </c>
+      <c r="C83" s="14">
+        <v>48000</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E83" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F83" s="14">
+        <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
+      <c r="G83" s="13">
+        <v>4</v>
+      </c>
+      <c r="H83" s="13">
+        <v>20</v>
+      </c>
+      <c r="I83" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1200</v>
+      </c>
+      <c r="J83" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>24000</v>
+      </c>
+      <c r="K83" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>33600</v>
+      </c>
+      <c r="L83" s="15"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+    </row>
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" s="14">
+        <v>5</v>
+      </c>
+      <c r="C84" s="14">
+        <v>36000</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E84" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F84" s="14">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="G84" s="13">
+        <v>4</v>
+      </c>
+      <c r="H84" s="13">
+        <v>20</v>
+      </c>
+      <c r="I84" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>900</v>
+      </c>
+      <c r="J84" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>18000</v>
+      </c>
+      <c r="K84" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>25200</v>
+      </c>
+      <c r="L84" s="15"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" s="14">
+        <v>7</v>
+      </c>
+      <c r="C85" s="14">
+        <v>84000</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E85" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="3"/>
+        <v>16800</v>
+      </c>
+      <c r="G85" s="13">
+        <v>4</v>
+      </c>
+      <c r="H85" s="13">
+        <v>20</v>
+      </c>
+      <c r="I85" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>2100</v>
+      </c>
+      <c r="J85" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>42000</v>
+      </c>
+      <c r="K85" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>58799.999999999993</v>
+      </c>
+      <c r="L85" s="15"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B86" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C86" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D86" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E86" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F86" s="14">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="G86" s="13">
+        <v>4</v>
+      </c>
+      <c r="H86" s="13">
+        <v>20</v>
+      </c>
+      <c r="I86" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J86" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K86" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
+      <c r="L86" s="15"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="14">
+        <v>48000</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E87" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
+      <c r="G87" s="13">
+        <v>4</v>
+      </c>
+      <c r="H87" s="13">
+        <v>20</v>
+      </c>
+      <c r="I87" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1200</v>
+      </c>
+      <c r="J87" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>24000</v>
+      </c>
+      <c r="K87" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>33600</v>
+      </c>
+      <c r="L87" s="15"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="14">
+        <v>1</v>
+      </c>
+      <c r="C88" s="14">
+        <v>78000</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="E88" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F88" s="14">
+        <f t="shared" si="3"/>
+        <v>15600</v>
+      </c>
+      <c r="G88" s="13">
+        <v>4</v>
+      </c>
+      <c r="H88" s="13">
+        <v>20</v>
+      </c>
+      <c r="I88" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1950</v>
+      </c>
+      <c r="J88" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>39000</v>
+      </c>
+      <c r="K88" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>54600</v>
+      </c>
+      <c r="L88" s="15"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C89" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D89" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E89" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" ref="F89:F94" si="4">E89*D89</f>
+        <v>4800</v>
+      </c>
+      <c r="G89" s="13">
+        <v>4</v>
+      </c>
+      <c r="H89" s="13">
+        <v>20</v>
+      </c>
+      <c r="I89" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J89" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B90" s="14">
+        <v>3</v>
+      </c>
+      <c r="C90" s="14">
+        <v>36000</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E90" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F90" s="14">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+      <c r="G90" s="13">
+        <v>4</v>
+      </c>
+      <c r="H90" s="13">
+        <v>20</v>
+      </c>
+      <c r="I90" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>900</v>
+      </c>
+      <c r="J90" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>18000</v>
+      </c>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B91" s="14">
+        <v>5</v>
+      </c>
+      <c r="C91" s="14">
+        <v>48000</v>
+      </c>
+      <c r="D91" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E91" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F91" s="14">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="G91" s="13">
+        <v>4</v>
+      </c>
+      <c r="H91" s="13">
+        <v>20</v>
+      </c>
+      <c r="I91" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1200</v>
+      </c>
+      <c r="J91" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>24000</v>
+      </c>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B92" s="14">
+        <v>1</v>
+      </c>
+      <c r="C92" s="14">
+        <v>24000</v>
+      </c>
+      <c r="D92" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E92" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F92" s="14">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+      <c r="G92" s="13">
+        <v>4</v>
+      </c>
+      <c r="H92" s="13">
+        <v>20</v>
+      </c>
+      <c r="I92" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>600</v>
+      </c>
+      <c r="J92" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>12000</v>
+      </c>
+      <c r="K92" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
+      <c r="L92" s="15"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B93" s="14">
+        <v>3</v>
+      </c>
+      <c r="C93" s="14">
+        <v>36000</v>
+      </c>
+      <c r="D93" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F93" s="14">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+      <c r="G93" s="13">
+        <v>4</v>
+      </c>
+      <c r="H93" s="13">
+        <v>20</v>
+      </c>
+      <c r="I93" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>900</v>
+      </c>
+      <c r="J93" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>18000</v>
+      </c>
+      <c r="K93" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>25200</v>
+      </c>
+      <c r="L93" s="15"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B94" s="14">
+        <v>8</v>
+      </c>
+      <c r="C94" s="14">
+        <v>48000</v>
+      </c>
+      <c r="D94" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E94" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F94" s="14">
+        <f t="shared" si="4"/>
+        <v>9600</v>
+      </c>
+      <c r="G94" s="13">
+        <v>4</v>
+      </c>
+      <c r="H94" s="13">
+        <v>20</v>
+      </c>
+      <c r="I94" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1200</v>
+      </c>
+      <c r="J94" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>24000</v>
+      </c>
+      <c r="K94" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>33600</v>
+      </c>
+      <c r="L94" s="15"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE23AA-A812-42C2-970B-6339ED8BB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C55B53-EC05-4EF7-BD02-15DD167BE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="520">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -1797,6 +1797,26 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1852,26 +1872,6 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3837,41 +3837,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB47A36-EF59-4629-8A7A-D90388D2DA47}" name="Tabelle2" displayName="Tabelle2" ref="A1:N94" totalsRowShown="0">
-  <autoFilter ref="A1:N94" xr:uid="{43FCEE65-5053-440F-87D7-CD84BE0811AC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Leichte Rüstung"/>
-        <filter val="Mittlere Rüstung"/>
-        <filter val="Schwere Rüstung"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB47A36-EF59-4629-8A7A-D90388D2DA47}" name="Tabelle2" displayName="Tabelle2" ref="A1:N91" totalsRowShown="0">
+  <autoFilter ref="A1:N91" xr:uid="{43FCEE65-5053-440F-87D7-CD84BE0811AC}"/>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{9E2C9976-C001-4E9E-B398-2437CAF2303A}" name="Gegenstand" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1CD51572-38E2-4439-9828-C3D1AE45DDDE}" name="Gewicht" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{13405CBC-86E3-4F73-A0C9-E2CBB3F1B97A}" name="Kosten bei Kauf" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{6FDE874F-C03A-4DE8-B458-15FC1F0AEC3F}" name="Materialbedarf" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{AE9B68B6-4F11-4C14-B43D-DF442BCAFE2E}" name="Kosten 1x Material" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{7D485073-4523-4AC2-A049-CB33300420EC}" name="Materialkosten" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{9E2C9976-C001-4E9E-B398-2437CAF2303A}" name="Gegenstand" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{1CD51572-38E2-4439-9828-C3D1AE45DDDE}" name="Gewicht" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{13405CBC-86E3-4F73-A0C9-E2CBB3F1B97A}" name="Kosten bei Kauf" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{6FDE874F-C03A-4DE8-B458-15FC1F0AEC3F}" name="Materialbedarf" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{AE9B68B6-4F11-4C14-B43D-DF442BCAFE2E}" name="Kosten 1x Material" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{7D485073-4523-4AC2-A049-CB33300420EC}" name="Materialkosten" dataDxfId="10">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{896FEFCD-2D38-4359-8D3E-E1BB66BC68FB}" name="Tier" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{ADE7FB1A-F1FE-49D8-B054-D6F046FF9797}" name="Max Zustand" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{1D43DE8B-99FA-491E-A40D-75D82B019F9C}" name="Reperaturkosten pro +1 Zustand bei Schmied" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{896FEFCD-2D38-4359-8D3E-E1BB66BC68FB}" name="Tier" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{ADE7FB1A-F1FE-49D8-B054-D6F046FF9797}" name="Max Zustand" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{1D43DE8B-99FA-491E-A40D-75D82B019F9C}" name="Reperaturkosten pro +1 Zustand bei Schmied" dataDxfId="7">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BA5C6857-6EDC-4C2A-B437-A1F5CA2A1A3D}" name="Rep von 1 auf Max Zustand" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{BA5C6857-6EDC-4C2A-B437-A1F5CA2A1A3D}" name="Rep von 1 auf Max Zustand" dataDxfId="6">
       <calculatedColumnFormula>I2*(H2-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9A41CA1A-30C0-450F-B43E-BDB2032E474C}" name="Verbesserungsskosten" dataDxfId="3">
+    <tableColumn id="16" xr3:uid="{9A41CA1A-30C0-450F-B43E-BDB2032E474C}" name="Verbesserungsskosten" dataDxfId="5">
       <calculatedColumnFormula>(0.5*E2*D2)+(0.3*1100*SQRT(G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{C7498DF9-211D-41E8-8868-DE621CDD1D71}" name="Auf höheres Tier Aufrüsten" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{8538BE0B-2B04-4389-8F0D-CA1452E021DE}" name="Schmiedaufrüstung" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{C7498DF9-211D-41E8-8868-DE621CDD1D71}" name="Auf höheres Tier Aufrüsten" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{8538BE0B-2B04-4389-8F0D-CA1452E021DE}" name="Schmiedaufrüstung" dataDxfId="3">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DE2D47E1-2370-4644-BAFD-CFAC2F8F8081}" name="NF" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{DE2D47E1-2370-4644-BAFD-CFAC2F8F8081}" name="NF" dataDxfId="2">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4677,7 +4669,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:B26">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5298,7 +5290,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
@@ -7347,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA995A-94D3-4F12-9B21-FB0184D3D47F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -8131,11 +8123,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B249C45-CD83-4130-ABC7-96319CC48F44}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K20" sqref="K20:N68"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8198,7 +8190,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>502</v>
       </c>
@@ -8240,7 +8232,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>501</v>
       </c>
@@ -8291,7 +8283,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>500</v>
       </c>
@@ -8342,7 +8334,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>499</v>
       </c>
@@ -8380,20 +8372,20 @@
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
         <v>1750</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="15" t="e">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>4800</v>
-      </c>
-      <c r="M5" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C28</f>
-        <v>-4000</v>
-      </c>
-      <c r="N5" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C28</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="13" t="e">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 -#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="13" t="e">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>498</v>
       </c>
@@ -8436,15 +8428,15 @@
         <v>9600</v>
       </c>
       <c r="M6" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C29</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C28</f>
         <v>-8000</v>
       </c>
       <c r="N6" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C29</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C28</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>497</v>
       </c>
@@ -8487,15 +8479,15 @@
         <v>9600</v>
       </c>
       <c r="M7" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C30</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C29</f>
         <v>-8000</v>
       </c>
       <c r="N7" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C30</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C29</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>496</v>
       </c>
@@ -8538,16 +8530,16 @@
         <v>9600</v>
       </c>
       <c r="M8" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C31</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C30</f>
         <v>-8000</v>
       </c>
       <c r="N8" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C31</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C30</f>
         <v>1600</v>
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>495</v>
       </c>
@@ -8590,15 +8582,15 @@
         <v>3840</v>
       </c>
       <c r="M9" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C32</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C31</f>
         <v>-3200</v>
       </c>
       <c r="N9" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C32</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C31</f>
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>494</v>
       </c>
@@ -8641,15 +8633,15 @@
         <v>4800</v>
       </c>
       <c r="M10" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C33</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C32</f>
         <v>-4000</v>
       </c>
       <c r="N10" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C33</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C32</f>
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>493</v>
       </c>
@@ -8692,15 +8684,15 @@
         <v>12480</v>
       </c>
       <c r="M11" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C34</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C33</f>
         <v>-10400</v>
       </c>
       <c r="N11" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C34</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C33</f>
         <v>2080</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>492</v>
       </c>
@@ -8743,15 +8735,15 @@
         <v>12480</v>
       </c>
       <c r="M12" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C35</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C34</f>
         <v>-10400</v>
       </c>
       <c r="N12" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C35</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C34</f>
         <v>2080</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>491</v>
       </c>
@@ -8794,15 +8786,15 @@
         <v>12480</v>
       </c>
       <c r="M13" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C36</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C35</f>
         <v>-10400</v>
       </c>
       <c r="N13" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C36</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C35</f>
         <v>2080</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>490</v>
       </c>
@@ -8845,15 +8837,15 @@
         <v>7680</v>
       </c>
       <c r="M14" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C37</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C36</f>
         <v>-6400</v>
       </c>
       <c r="N14" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C37</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C36</f>
         <v>1280</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>489</v>
       </c>
@@ -8896,15 +8888,15 @@
         <v>5760</v>
       </c>
       <c r="M15" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C38</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C37</f>
         <v>-4800</v>
       </c>
       <c r="N15" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C38</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C37</f>
         <v>960</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>488</v>
       </c>
@@ -8947,15 +8939,15 @@
         <v>13440</v>
       </c>
       <c r="M16" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C39</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C38</f>
         <v>-11200</v>
       </c>
       <c r="N16" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C39</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C38</f>
         <v>2240</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>487</v>
       </c>
@@ -8998,15 +8990,15 @@
         <v>3840</v>
       </c>
       <c r="M17" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C40</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C39</f>
         <v>-3200</v>
       </c>
       <c r="N17" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C40</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C39</f>
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>486</v>
       </c>
@@ -9049,15 +9041,15 @@
         <v>7680</v>
       </c>
       <c r="M18" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C41</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C40</f>
         <v>-6400</v>
       </c>
       <c r="N18" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C41</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C40</f>
         <v>1280</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>485</v>
       </c>
@@ -9100,11 +9092,11 @@
         <v>12480</v>
       </c>
       <c r="M19" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C42</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C41</f>
         <v>-10400</v>
       </c>
       <c r="N19" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C42</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C41</f>
         <v>2080</v>
       </c>
     </row>
@@ -9203,7 +9195,7 @@
         <v>1000</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" ref="F22:F44" si="1">E22*D22</f>
+        <f t="shared" ref="F22:F43" si="1">E22*D22</f>
         <v>800</v>
       </c>
       <c r="G22" s="13">
@@ -9225,7 +9217,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>484</v>
       </c>
@@ -9268,15 +9260,15 @@
         <v>3840</v>
       </c>
       <c r="M23" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C46</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C45</f>
         <v>-3200</v>
       </c>
       <c r="N23" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C46</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C45</f>
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>483</v>
       </c>
@@ -9319,15 +9311,15 @@
         <v>5760</v>
       </c>
       <c r="M24" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C47</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C46</f>
         <v>-4800</v>
       </c>
       <c r="N24" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C47</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C46</f>
         <v>960</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>482</v>
       </c>
@@ -9370,15 +9362,15 @@
         <v>7680</v>
       </c>
       <c r="M25" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C48</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C47</f>
         <v>-6400</v>
       </c>
       <c r="N25" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C48</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C47</f>
         <v>1280</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>501</v>
       </c>
@@ -9421,15 +9413,15 @@
         <v>10800</v>
       </c>
       <c r="M26" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C49</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C48</f>
         <v>-9000</v>
       </c>
       <c r="N26" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C49</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C48</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>500</v>
       </c>
@@ -9472,71 +9464,71 @@
         <v>10800</v>
       </c>
       <c r="M27" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C49</f>
+        <v>-9000</v>
+      </c>
+      <c r="N27" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C49</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28" s="16">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G28" s="13">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13">
+        <v>10</v>
+      </c>
+      <c r="I28" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>750</v>
+      </c>
+      <c r="J28" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>7500</v>
+      </c>
+      <c r="K28" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>10500</v>
+      </c>
+      <c r="L28" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>10800</v>
+      </c>
+      <c r="M28" s="13">
         <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C50</f>
         <v>-9000</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N28" s="13">
         <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C50</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B28" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="14">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="14">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G28" s="13">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B29" s="16">
         <v>2</v>
-      </c>
-      <c r="H28" s="13">
-        <v>10</v>
-      </c>
-      <c r="I28" s="13">
-        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>375</v>
-      </c>
-      <c r="J28" s="13">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>3750</v>
-      </c>
-      <c r="K28" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>5250</v>
-      </c>
-      <c r="L28" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>5400</v>
-      </c>
-      <c r="M28" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C51</f>
-        <v>-4500</v>
-      </c>
-      <c r="N28" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C51</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="B29" s="16">
-        <v>1</v>
       </c>
       <c r="C29" s="14">
         <v>15000</v>
@@ -9574,20 +9566,20 @@
         <v>10800</v>
       </c>
       <c r="M29" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C52</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C51</f>
         <v>-9000</v>
       </c>
       <c r="N29" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C52</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C51</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B30" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="14">
         <v>15000</v>
@@ -9625,33 +9617,33 @@
         <v>10800</v>
       </c>
       <c r="M30" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C53</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C52</f>
         <v>-9000</v>
       </c>
       <c r="N30" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C53</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C52</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B31" s="16">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C31" s="14">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="D31" s="14">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E31" s="14">
         <v>3000</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="G31" s="13">
         <v>2</v>
@@ -9661,48 +9653,48 @@
       </c>
       <c r="I31" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="J31" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="K31" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>10500</v>
+        <v>4200</v>
       </c>
       <c r="L31" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>10800</v>
+        <v>4320</v>
       </c>
       <c r="M31" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C54</f>
-        <v>-9000</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C53</f>
+        <v>-3600</v>
       </c>
       <c r="N31" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C54</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C53</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D32" s="14">
         <v>0.5</v>
-      </c>
-      <c r="C32" s="14">
-        <v>6000</v>
-      </c>
-      <c r="D32" s="14">
-        <v>0.4</v>
       </c>
       <c r="E32" s="14">
         <v>3000</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="13">
         <v>2</v>
@@ -9712,48 +9704,48 @@
       </c>
       <c r="I32" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="J32" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="K32" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>4200</v>
+        <v>5250</v>
       </c>
       <c r="L32" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>4320</v>
+        <v>5400</v>
       </c>
       <c r="M32" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C55</f>
-        <v>-3600</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C54</f>
+        <v>-4500</v>
       </c>
       <c r="N32" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C55</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C54</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" s="14">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="D33" s="14">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E33" s="14">
         <v>3000</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>3900</v>
       </c>
       <c r="G33" s="13">
         <v>2</v>
@@ -9763,35 +9755,35 @@
       </c>
       <c r="I33" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>375</v>
+        <v>975</v>
       </c>
       <c r="J33" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>3750</v>
+        <v>9750</v>
       </c>
       <c r="K33" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>5250</v>
+        <v>13650</v>
       </c>
       <c r="L33" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>5400</v>
+        <v>14040</v>
       </c>
       <c r="M33" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C56</f>
-        <v>-4500</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C55</f>
+        <v>-11700</v>
       </c>
       <c r="N33" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C56</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C55</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B34" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="14">
         <v>19500</v>
@@ -9829,20 +9821,20 @@
         <v>14040</v>
       </c>
       <c r="M34" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C57</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C56</f>
         <v>-11700</v>
       </c>
       <c r="N34" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C57</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C56</f>
         <v>2340</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B35" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" s="14">
         <v>19500</v>
@@ -9880,33 +9872,33 @@
         <v>14040</v>
       </c>
       <c r="M35" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C58</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C57</f>
         <v>-11700</v>
       </c>
       <c r="N35" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C58</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C57</f>
         <v>2340</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="B36" s="16">
-        <v>8</v>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B36" s="14">
+        <v>3</v>
       </c>
       <c r="C36" s="14">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="D36" s="14">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="E36" s="14">
         <v>3000</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="1"/>
-        <v>3900</v>
+        <v>2400</v>
       </c>
       <c r="G36" s="13">
         <v>2</v>
@@ -9916,48 +9908,48 @@
       </c>
       <c r="I36" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>975</v>
+        <v>600</v>
       </c>
       <c r="J36" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>9750</v>
+        <v>6000</v>
       </c>
       <c r="K36" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>13650</v>
+        <v>8400</v>
       </c>
       <c r="L36" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>14040</v>
+        <v>8640</v>
       </c>
       <c r="M36" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C59</f>
-        <v>-11700</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C58</f>
+        <v>-7200</v>
       </c>
       <c r="N36" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C59</f>
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C58</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B37" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="14">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="D37" s="14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E37" s="14">
         <v>3000</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="G37" s="13">
         <v>2</v>
@@ -9967,48 +9959,48 @@
       </c>
       <c r="I37" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="J37" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="K37" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>8400</v>
+        <v>6300</v>
       </c>
       <c r="L37" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>8640</v>
+        <v>6480</v>
       </c>
       <c r="M37" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C60</f>
-        <v>-7200</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C59</f>
+        <v>-5400</v>
       </c>
       <c r="N37" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C60</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C59</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B38" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" s="14">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="D38" s="14">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="E38" s="14">
         <v>3000</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="G38" s="13">
         <v>2</v>
@@ -10018,48 +10010,48 @@
       </c>
       <c r="I38" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="J38" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="K38" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>6300</v>
+        <v>14699.999999999998</v>
       </c>
       <c r="L38" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>6480</v>
+        <v>15120.000000000004</v>
       </c>
       <c r="M38" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C61</f>
-        <v>-5400</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C60</f>
+        <v>-12600.000000000004</v>
       </c>
       <c r="N38" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C61</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C60</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B39" s="14">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="C39" s="14">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="D39" s="14">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="E39" s="14">
         <v>3000</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>1200</v>
       </c>
       <c r="G39" s="13">
         <v>2</v>
@@ -10069,48 +10061,48 @@
       </c>
       <c r="I39" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="J39" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="K39" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>14699.999999999998</v>
+        <v>4200</v>
       </c>
       <c r="L39" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>15120.000000000004</v>
+        <v>4320</v>
       </c>
       <c r="M39" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C62</f>
-        <v>-12600.000000000004</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C61</f>
+        <v>-3600</v>
       </c>
       <c r="N39" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C62</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C61</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" s="14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C40" s="14">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="D40" s="14">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E40" s="14">
         <v>3000</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="G40" s="13">
         <v>2</v>
@@ -10120,48 +10112,48 @@
       </c>
       <c r="I40" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J40" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="K40" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>4200</v>
+        <v>8400</v>
       </c>
       <c r="L40" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>4320</v>
+        <v>8640</v>
       </c>
       <c r="M40" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C63</f>
-        <v>-3600</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C62</f>
+        <v>-7200</v>
       </c>
       <c r="N40" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C63</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C62</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B41" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C41" s="14">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="D41" s="14">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="E41" s="14">
         <v>3000</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>3900</v>
       </c>
       <c r="G41" s="13">
         <v>2</v>
@@ -10171,48 +10163,48 @@
       </c>
       <c r="I41" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>600</v>
+        <v>975</v>
       </c>
       <c r="J41" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>9750</v>
       </c>
       <c r="K41" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>8400</v>
+        <v>13650</v>
       </c>
       <c r="L41" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>8640</v>
+        <v>14040</v>
       </c>
       <c r="M41" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C64</f>
-        <v>-7200</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C63</f>
+        <v>-11700</v>
       </c>
       <c r="N41" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C64</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C63</f>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B42" s="14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C42" s="14">
-        <v>19500</v>
+        <v>6000</v>
       </c>
       <c r="D42" s="14">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="E42" s="14">
         <v>3000</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="1"/>
-        <v>3900</v>
+        <v>1200</v>
       </c>
       <c r="G42" s="13">
         <v>2</v>
@@ -10222,48 +10214,36 @@
       </c>
       <c r="I42" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>975</v>
+        <v>300</v>
       </c>
       <c r="J42" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>9750</v>
-      </c>
-      <c r="K42" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>13650</v>
-      </c>
-      <c r="L42" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>14040</v>
-      </c>
-      <c r="M42" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C65</f>
-        <v>-11700</v>
-      </c>
-      <c r="N42" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C65</f>
-        <v>2340</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B43" s="14">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="14">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D43" s="14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E43" s="14">
         <v>3000</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="G43" s="13">
         <v>2</v>
@@ -10273,11 +10253,11 @@
       </c>
       <c r="I43" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J43" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -10286,23 +10266,23 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B44" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="14">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="D44" s="14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E44" s="14">
         <v>3000</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="1"/>
-        <v>1800</v>
+        <f t="shared" ref="F44:F64" si="2">E44*D44</f>
+        <v>2400</v>
       </c>
       <c r="G44" s="13">
         <v>2</v>
@@ -10312,11 +10292,11 @@
       </c>
       <c r="I44" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="J44" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -10325,23 +10305,23 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="B45" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" s="14">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="D45" s="14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E45" s="14">
         <v>3000</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" ref="F45:F66" si="2">E45*D45</f>
-        <v>2400</v>
+        <f t="shared" si="2"/>
+        <v>1200</v>
       </c>
       <c r="G45" s="13">
         <v>2</v>
@@ -10351,36 +10331,48 @@
       </c>
       <c r="I45" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J45" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="K45" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>4200</v>
+      </c>
+      <c r="L45" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>4320</v>
+      </c>
+      <c r="M45" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C67</f>
+        <v>-3600</v>
+      </c>
+      <c r="N45" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C67</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B46" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="14">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="D46" s="14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E46" s="14">
         <v>3000</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="G46" s="13">
         <v>2</v>
@@ -10390,48 +10382,48 @@
       </c>
       <c r="I46" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J46" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="K46" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>4200</v>
+        <v>6300</v>
       </c>
       <c r="L46" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>4320</v>
+        <v>6480</v>
       </c>
       <c r="M46" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C69</f>
-        <v>-3600</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C68</f>
+        <v>-5400</v>
       </c>
       <c r="N46" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C69</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C68</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B47" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C47" s="14">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="D47" s="14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E47" s="14">
         <v>3000</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="13">
         <v>2</v>
@@ -10441,86 +10433,86 @@
       </c>
       <c r="I47" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="J47" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="K47" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>6300</v>
+        <v>8400</v>
       </c>
       <c r="L47" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>6480</v>
+        <v>8640</v>
       </c>
       <c r="M47" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C70</f>
-        <v>-5400</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C69</f>
+        <v>-7200</v>
       </c>
       <c r="N47" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C70</f>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C69</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="B48" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C48" s="14">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="D48" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E48" s="14">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I48" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>600</v>
+        <v>1071.4285714285713</v>
       </c>
       <c r="J48" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="K48" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>8400</v>
+        <v>21000</v>
       </c>
       <c r="L48" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>8640</v>
+        <v>21600</v>
       </c>
       <c r="M48" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C71</f>
-        <v>-7200</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C70</f>
+        <v>-18000</v>
       </c>
       <c r="N48" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C71</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C70</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B49" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="14">
         <v>30000</v>
@@ -10558,20 +10550,20 @@
         <v>21600</v>
       </c>
       <c r="M49" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C72</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C71</f>
         <v>-18000</v>
       </c>
       <c r="N49" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C72</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C71</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="B50" s="14">
-        <v>2</v>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B50" s="16">
+        <v>1</v>
       </c>
       <c r="C50" s="14">
         <v>30000</v>
@@ -10609,71 +10601,71 @@
         <v>21600</v>
       </c>
       <c r="M50" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C72</f>
+        <v>-18000</v>
+      </c>
+      <c r="N50" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C72</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2</v>
+      </c>
+      <c r="C51" s="14">
+        <v>30000</v>
+      </c>
+      <c r="D51" s="14">
+        <v>1</v>
+      </c>
+      <c r="E51" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3</v>
+      </c>
+      <c r="H51" s="13">
+        <v>14</v>
+      </c>
+      <c r="I51" s="13">
+        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
+        <v>1071.4285714285713</v>
+      </c>
+      <c r="J51" s="13">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
+        <v>15000</v>
+      </c>
+      <c r="K51" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>21000</v>
+      </c>
+      <c r="L51" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>21600</v>
+      </c>
+      <c r="M51" s="13">
         <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C73</f>
         <v>-18000</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="13">
         <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C73</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B51" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="C51" s="14">
-        <v>15000</v>
-      </c>
-      <c r="D51" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="14">
-        <v>6000</v>
-      </c>
-      <c r="F51" s="14">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="G51" s="13">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" s="16">
         <v>3</v>
-      </c>
-      <c r="H51" s="13">
-        <v>14</v>
-      </c>
-      <c r="I51" s="13">
-        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>535.71428571428567</v>
-      </c>
-      <c r="J51" s="13">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>7500</v>
-      </c>
-      <c r="K51" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>10500</v>
-      </c>
-      <c r="L51" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>10800</v>
-      </c>
-      <c r="M51" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C74</f>
-        <v>-9000</v>
-      </c>
-      <c r="N51" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C74</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="B52" s="16">
-        <v>1</v>
       </c>
       <c r="C52" s="14">
         <v>30000</v>
@@ -10711,33 +10703,33 @@
         <v>21600</v>
       </c>
       <c r="M52" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C75</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C74</f>
         <v>-18000</v>
       </c>
       <c r="N52" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C75</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C74</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B53" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C53" s="14">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="D53" s="14">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E53" s="14">
         <v>6000</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>2400</v>
       </c>
       <c r="G53" s="13">
         <v>3</v>
@@ -10747,48 +10739,48 @@
       </c>
       <c r="I53" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1071.4285714285713</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J53" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="K53" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>21000</v>
+        <v>8400</v>
       </c>
       <c r="L53" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>21600</v>
+        <v>8640</v>
       </c>
       <c r="M53" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C76</f>
-        <v>-18000</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C75</f>
+        <v>-7200</v>
       </c>
       <c r="N53" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C76</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C75</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B54" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" s="14">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D54" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E54" s="14">
         <v>6000</v>
       </c>
       <c r="F54" s="14">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G54" s="13">
         <v>3</v>
@@ -10798,48 +10790,48 @@
       </c>
       <c r="I54" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1071.4285714285713</v>
+        <v>535.71428571428567</v>
       </c>
       <c r="J54" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="K54" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="L54" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>21600</v>
+        <v>10800</v>
       </c>
       <c r="M54" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C77</f>
-        <v>-18000</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C76</f>
+        <v>-9000</v>
       </c>
       <c r="N54" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C77</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C76</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B55" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="14">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="D55" s="14">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="E55" s="14">
         <v>6000</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>7800</v>
       </c>
       <c r="G55" s="13">
         <v>3</v>
@@ -10849,48 +10841,48 @@
       </c>
       <c r="I55" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>428.57142857142856</v>
+        <v>1392.8571428571429</v>
       </c>
       <c r="J55" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>19500</v>
       </c>
       <c r="K55" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>8400</v>
+        <v>27300</v>
       </c>
       <c r="L55" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>8640</v>
+        <v>28080</v>
       </c>
       <c r="M55" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C78</f>
-        <v>-7200</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C77</f>
+        <v>-23400</v>
       </c>
       <c r="N55" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C78</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C77</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B56" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C56" s="14">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="D56" s="14">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E56" s="14">
         <v>6000</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="G56" s="13">
         <v>3</v>
@@ -10900,35 +10892,35 @@
       </c>
       <c r="I56" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>535.71428571428567</v>
+        <v>1392.8571428571429</v>
       </c>
       <c r="J56" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="K56" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>10500</v>
+        <v>27300</v>
       </c>
       <c r="L56" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>10800</v>
+        <v>28080</v>
       </c>
       <c r="M56" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C79</f>
-        <v>-9000</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C78</f>
+        <v>-23400</v>
       </c>
       <c r="N56" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C79</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C78</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B57" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C57" s="14">
         <v>39000</v>
@@ -10966,33 +10958,33 @@
         <v>28080</v>
       </c>
       <c r="M57" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C80</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C79</f>
         <v>-23400</v>
       </c>
       <c r="N57" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C80</f>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C79</f>
         <v>4680</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="B58" s="16">
-        <v>5</v>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="14">
+        <v>3</v>
       </c>
       <c r="C58" s="14">
-        <v>39000</v>
+        <v>24000</v>
       </c>
       <c r="D58" s="14">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="E58" s="14">
         <v>6000</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="2"/>
-        <v>7800</v>
+        <v>4800</v>
       </c>
       <c r="G58" s="13">
         <v>3</v>
@@ -11002,48 +10994,48 @@
       </c>
       <c r="I58" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1392.8571428571429</v>
+        <v>857.14285714285711</v>
       </c>
       <c r="J58" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="K58" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>27300</v>
+        <v>16800</v>
       </c>
       <c r="L58" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>28080</v>
+        <v>17280</v>
       </c>
       <c r="M58" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C81</f>
-        <v>-23400</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C80</f>
+        <v>-14400</v>
       </c>
       <c r="N58" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C81</f>
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="B59" s="16">
-        <v>8</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C80</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B59" s="14">
+        <v>5</v>
       </c>
       <c r="C59" s="14">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="D59" s="14">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="E59" s="14">
         <v>6000</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="2"/>
-        <v>7800</v>
+        <v>3600</v>
       </c>
       <c r="G59" s="13">
         <v>3</v>
@@ -11053,48 +11045,48 @@
       </c>
       <c r="I59" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1392.8571428571429</v>
+        <v>642.85714285714289</v>
       </c>
       <c r="J59" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="K59" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>27300</v>
+        <v>12600</v>
       </c>
       <c r="L59" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>28080</v>
+        <v>12960</v>
       </c>
       <c r="M59" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C82</f>
-        <v>-23400</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C81</f>
+        <v>-10800</v>
       </c>
       <c r="N59" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C82</f>
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C81</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B60" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" s="14">
-        <v>24000</v>
+        <v>42000</v>
       </c>
       <c r="D60" s="14">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="E60" s="14">
         <v>6000</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>8400</v>
       </c>
       <c r="G60" s="13">
         <v>3</v>
@@ -11104,48 +11096,48 @@
       </c>
       <c r="I60" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>857.14285714285711</v>
+        <v>1500</v>
       </c>
       <c r="J60" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="K60" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>16800</v>
+        <v>29399.999999999996</v>
       </c>
       <c r="L60" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>17280</v>
+        <v>30240.000000000007</v>
       </c>
       <c r="M60" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C83</f>
-        <v>-14400</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C82</f>
+        <v>-25200.000000000007</v>
       </c>
       <c r="N60" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C83</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C82</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B61" s="14">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="C61" s="14">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="D61" s="14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E61" s="14">
         <v>6000</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="2"/>
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G61" s="13">
         <v>3</v>
@@ -11155,48 +11147,48 @@
       </c>
       <c r="I61" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>642.85714285714289</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J61" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K61" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>12600</v>
+        <v>8400</v>
       </c>
       <c r="L61" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>12960</v>
+        <v>8640</v>
       </c>
       <c r="M61" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C84</f>
-        <v>-10800</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C83</f>
+        <v>-7200</v>
       </c>
       <c r="N61" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C84</f>
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C83</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B62" s="14">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="C62" s="14">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="D62" s="14">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="E62" s="14">
         <v>6000</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="2"/>
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="G62" s="13">
         <v>3</v>
@@ -11206,48 +11198,48 @@
       </c>
       <c r="I62" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1500</v>
+        <v>857.14285714285711</v>
       </c>
       <c r="J62" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="K62" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>29399.999999999996</v>
+        <v>16800</v>
       </c>
       <c r="L62" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>30240.000000000007</v>
+        <v>17280</v>
       </c>
       <c r="M62" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C85</f>
-        <v>-25200.000000000007</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C84</f>
+        <v>-14400</v>
       </c>
       <c r="N62" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C85</f>
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C84</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B63" s="14">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="14">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="D63" s="14">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="E63" s="14">
         <v>6000</v>
       </c>
       <c r="F63" s="14">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>7800</v>
       </c>
       <c r="G63" s="13">
         <v>3</v>
@@ -11257,48 +11249,48 @@
       </c>
       <c r="I63" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>428.57142857142856</v>
+        <v>1392.8571428571429</v>
       </c>
       <c r="J63" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>19500</v>
       </c>
       <c r="K63" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>8400</v>
+        <v>27300</v>
       </c>
       <c r="L63" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>8640</v>
+        <v>28080</v>
       </c>
       <c r="M63" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C86</f>
-        <v>-7200</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C85</f>
+        <v>-23400</v>
       </c>
       <c r="N63" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C86</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C85</f>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="B64" s="14">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="C64" s="14">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="D64" s="14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E64" s="14">
         <v>6000</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="G64" s="13">
         <v>3</v>
@@ -11308,48 +11300,36 @@
       </c>
       <c r="I64" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>857.14285714285711</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J64" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>12000</v>
-      </c>
-      <c r="K64" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>16800</v>
-      </c>
-      <c r="L64" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>17280</v>
-      </c>
-      <c r="M64" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C87</f>
-        <v>-14400</v>
-      </c>
-      <c r="N64" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C87</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="B65" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" s="14">
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="D65" s="14">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="E65" s="14">
         <v>6000</v>
       </c>
       <c r="F65" s="14">
-        <f t="shared" si="2"/>
-        <v>7800</v>
+        <f t="shared" ref="F65:F85" si="3">E65*D65</f>
+        <v>3600</v>
       </c>
       <c r="G65" s="13">
         <v>3</v>
@@ -11359,48 +11339,36 @@
       </c>
       <c r="I65" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1392.8571428571429</v>
+        <v>642.85714285714289</v>
       </c>
       <c r="J65" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>19500</v>
-      </c>
-      <c r="K65" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>27300</v>
-      </c>
-      <c r="L65" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>28080</v>
-      </c>
-      <c r="M65" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C88</f>
-        <v>-23400</v>
-      </c>
-      <c r="N65" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C88</f>
-        <v>4680</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B66" s="14">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="14">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D66" s="14">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E66" s="14">
         <v>6000</v>
       </c>
       <c r="F66" s="14">
-        <f t="shared" si="2"/>
-        <v>2400</v>
+        <f t="shared" si="3"/>
+        <v>4800</v>
       </c>
       <c r="G66" s="13">
         <v>3</v>
@@ -11410,11 +11378,11 @@
       </c>
       <c r="I66" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>428.57142857142856</v>
+        <v>857.14285714285711</v>
       </c>
       <c r="J66" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
@@ -11423,23 +11391,23 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="B67" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="14">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="D67" s="14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E67" s="14">
         <v>6000</v>
       </c>
       <c r="F67" s="14">
-        <f t="shared" ref="F67:F88" si="3">E67*D67</f>
-        <v>3600</v>
+        <f t="shared" si="3"/>
+        <v>2400</v>
       </c>
       <c r="G67" s="13">
         <v>3</v>
@@ -11449,36 +11417,48 @@
       </c>
       <c r="I67" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>642.85714285714289</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J67" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>9000</v>
-      </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
+        <v>6000</v>
+      </c>
+      <c r="K67" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>8400</v>
+      </c>
+      <c r="L67" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>8640</v>
+      </c>
+      <c r="M67" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C89</f>
+        <v>-7200</v>
+      </c>
+      <c r="N67" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C89</f>
+        <v>1440</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="B68" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="14">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="D68" s="14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E68" s="14">
         <v>6000</v>
       </c>
       <c r="F68" s="14">
         <f t="shared" si="3"/>
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="G68" s="13">
         <v>3</v>
@@ -11488,36 +11468,48 @@
       </c>
       <c r="I68" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>857.14285714285711</v>
+        <v>642.85714285714289</v>
       </c>
       <c r="J68" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>12000</v>
-      </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>9000</v>
+      </c>
+      <c r="K68" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>12600</v>
+      </c>
+      <c r="L68" s="15">
+        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
+        <v>12960</v>
+      </c>
+      <c r="M68" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C90</f>
+        <v>-10800</v>
+      </c>
+      <c r="N68" s="13">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C90</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B69" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C69" s="14">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D69" s="14">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E69" s="14">
         <v>6000</v>
       </c>
       <c r="F69" s="14">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="G69" s="13">
         <v>3</v>
@@ -11527,136 +11519,118 @@
       </c>
       <c r="I69" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>428.57142857142856</v>
+        <v>857.14285714285711</v>
       </c>
       <c r="J69" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="K69" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>8400</v>
+        <v>16800</v>
       </c>
       <c r="L69" s="15">
         <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>8640</v>
+        <v>17280</v>
       </c>
       <c r="M69" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C92</f>
-        <v>-7200</v>
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C91</f>
+        <v>-14400</v>
       </c>
       <c r="N69" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C92</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C91</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="B70" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" s="14">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="D70" s="14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E70" s="14">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="G70" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I70" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>642.85714285714289</v>
+        <v>1500</v>
       </c>
       <c r="J70" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="K70" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>12600</v>
-      </c>
-      <c r="L70" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>12960</v>
-      </c>
-      <c r="M70" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C93</f>
-        <v>-10800</v>
-      </c>
-      <c r="N70" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C93</f>
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+        <v>42000</v>
+      </c>
+      <c r="L70" s="15"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B71" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C71" s="14">
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="D71" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E71" s="14">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F71" s="14">
         <f t="shared" si="3"/>
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="G71" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I71" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>857.14285714285711</v>
+        <v>1500</v>
       </c>
       <c r="J71" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="K71" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>16800</v>
-      </c>
-      <c r="L71" s="15">
-        <f>Tabelle2[[#This Row],[Schmiedaufrüstung]] * - 1.2</f>
-        <v>17280</v>
-      </c>
-      <c r="M71" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2 - C94</f>
-        <v>-14400</v>
-      </c>
-      <c r="N71" s="13">
-        <f>Tabelle2[[#This Row],[Verbesserungsskosten]]*2+Tabelle2[[#This Row],[Auf höheres Tier Aufrüsten]]-C94</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B72" s="14">
+        <v>42000</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B72" s="16">
         <v>1</v>
       </c>
       <c r="C72" s="14">
@@ -11694,11 +11668,11 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="B73" s="14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B73" s="16">
         <v>2</v>
       </c>
       <c r="C73" s="14">
@@ -11736,25 +11710,25 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B74" s="14">
-        <v>0.5</v>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="B74" s="16">
+        <v>3</v>
       </c>
       <c r="C74" s="14">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D74" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E74" s="14">
         <v>12000</v>
       </c>
       <c r="F74" s="14">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G74" s="13">
         <v>4</v>
@@ -11764,39 +11738,39 @@
       </c>
       <c r="I74" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="J74" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="K74" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="L74" s="15"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B75" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C75" s="14">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="D75" s="14">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E75" s="14">
         <v>12000</v>
       </c>
       <c r="F75" s="14">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>4800</v>
       </c>
       <c r="G75" s="13">
         <v>4</v>
@@ -11806,39 +11780,39 @@
       </c>
       <c r="I75" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="J75" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="K75" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>42000</v>
+        <v>16800</v>
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B76" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="14">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="D76" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E76" s="14">
         <v>12000</v>
       </c>
       <c r="F76" s="14">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="G76" s="13">
         <v>4</v>
@@ -11848,39 +11822,39 @@
       </c>
       <c r="I76" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J76" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K76" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>42000</v>
+        <v>21000</v>
       </c>
       <c r="L76" s="15"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B77" s="16">
         <v>3</v>
       </c>
       <c r="C77" s="14">
-        <v>60000</v>
+        <v>78000</v>
       </c>
       <c r="D77" s="14">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E77" s="14">
         <v>12000</v>
       </c>
       <c r="F77" s="14">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15600</v>
       </c>
       <c r="G77" s="13">
         <v>4</v>
@@ -11890,39 +11864,39 @@
       </c>
       <c r="I77" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1500</v>
+        <v>1950</v>
       </c>
       <c r="J77" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="K77" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>42000</v>
+        <v>54600</v>
       </c>
       <c r="L77" s="15"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B78" s="16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="C78" s="14">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="D78" s="14">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="E78" s="14">
         <v>12000</v>
       </c>
       <c r="F78" s="14">
         <f t="shared" si="3"/>
-        <v>4800</v>
+        <v>15600</v>
       </c>
       <c r="G78" s="13">
         <v>4</v>
@@ -11932,39 +11906,39 @@
       </c>
       <c r="I78" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>600</v>
+        <v>1950</v>
       </c>
       <c r="J78" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="K78" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>16800</v>
+        <v>54600</v>
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B79" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C79" s="14">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="D79" s="14">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="E79" s="14">
         <v>12000</v>
       </c>
       <c r="F79" s="14">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>15600</v>
       </c>
       <c r="G79" s="13">
         <v>4</v>
@@ -11974,39 +11948,39 @@
       </c>
       <c r="I79" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>750</v>
+        <v>1950</v>
       </c>
       <c r="J79" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="K79" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>21000</v>
+        <v>54600</v>
       </c>
       <c r="L79" s="15"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="B80" s="16">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B80" s="14">
         <v>3</v>
       </c>
       <c r="C80" s="14">
-        <v>78000</v>
+        <v>48000</v>
       </c>
       <c r="D80" s="14">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="E80" s="14">
         <v>12000</v>
       </c>
       <c r="F80" s="14">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>9600</v>
       </c>
       <c r="G80" s="13">
         <v>4</v>
@@ -12016,39 +11990,39 @@
       </c>
       <c r="I80" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="J80" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>39000</v>
+        <v>24000</v>
       </c>
       <c r="K80" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>54600</v>
+        <v>33600</v>
       </c>
       <c r="L80" s="15"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="B81" s="16">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B81" s="14">
         <v>5</v>
       </c>
       <c r="C81" s="14">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="D81" s="14">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="E81" s="14">
         <v>12000</v>
       </c>
       <c r="F81" s="14">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>7200</v>
       </c>
       <c r="G81" s="13">
         <v>4</v>
@@ -12058,39 +12032,39 @@
       </c>
       <c r="I81" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1950</v>
+        <v>900</v>
       </c>
       <c r="J81" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>39000</v>
+        <v>18000</v>
       </c>
       <c r="K81" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>54600</v>
+        <v>25200</v>
       </c>
       <c r="L81" s="15"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="B82" s="16">
-        <v>8</v>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" s="14">
+        <v>7</v>
       </c>
       <c r="C82" s="14">
-        <v>78000</v>
+        <v>84000</v>
       </c>
       <c r="D82" s="14">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E82" s="14">
         <v>12000</v>
       </c>
       <c r="F82" s="14">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>16800</v>
       </c>
       <c r="G82" s="13">
         <v>4</v>
@@ -12100,39 +12074,39 @@
       </c>
       <c r="I82" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="J82" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="K82" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>54600</v>
+        <v>58799.999999999993</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B83" s="14">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="C83" s="14">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="D83" s="14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E83" s="14">
         <v>12000</v>
       </c>
       <c r="F83" s="14">
         <f t="shared" si="3"/>
-        <v>9600</v>
+        <v>4800</v>
       </c>
       <c r="G83" s="13">
         <v>4</v>
@@ -12142,39 +12116,39 @@
       </c>
       <c r="I83" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="J83" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K83" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>33600</v>
+        <v>16800</v>
       </c>
       <c r="L83" s="15"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B84" s="14">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C84" s="14">
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="D84" s="14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E84" s="14">
         <v>12000</v>
       </c>
       <c r="F84" s="14">
         <f t="shared" si="3"/>
-        <v>7200</v>
+        <v>9600</v>
       </c>
       <c r="G84" s="13">
         <v>4</v>
@@ -12184,39 +12158,39 @@
       </c>
       <c r="I84" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="J84" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="K84" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>25200</v>
+        <v>33600</v>
       </c>
       <c r="L84" s="15"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B85" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C85" s="14">
-        <v>84000</v>
+        <v>78000</v>
       </c>
       <c r="D85" s="14">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E85" s="14">
         <v>12000</v>
       </c>
       <c r="F85" s="14">
         <f t="shared" si="3"/>
-        <v>16800</v>
+        <v>15600</v>
       </c>
       <c r="G85" s="13">
         <v>4</v>
@@ -12226,26 +12200,26 @@
       </c>
       <c r="I85" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>2100</v>
+        <v>1950</v>
       </c>
       <c r="J85" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>42000</v>
+        <v>39000</v>
       </c>
       <c r="K85" s="15">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>58799.999999999993</v>
+        <v>54600</v>
       </c>
       <c r="L85" s="15"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="B86" s="14">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="C86" s="14">
         <v>24000</v>
@@ -12257,7 +12231,7 @@
         <v>12000</v>
       </c>
       <c r="F86" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F86:F91" si="4">E86*D86</f>
         <v>4800</v>
       </c>
       <c r="G86" s="13">
@@ -12274,33 +12248,30 @@
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
         <v>12000</v>
       </c>
-      <c r="K86" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>16800</v>
-      </c>
+      <c r="K86" s="15"/>
       <c r="L86" s="15"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="B87" s="14">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C87" s="14">
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="D87" s="14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E87" s="14">
         <v>12000</v>
       </c>
       <c r="F87" s="14">
-        <f t="shared" si="3"/>
-        <v>9600</v>
+        <f t="shared" si="4"/>
+        <v>7200</v>
       </c>
       <c r="G87" s="13">
         <v>4</v>
@@ -12310,39 +12281,36 @@
       </c>
       <c r="I87" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J87" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>24000</v>
-      </c>
-      <c r="K87" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>33600</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="K87" s="15"/>
       <c r="L87" s="15"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="B88" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88" s="14">
-        <v>78000</v>
+        <v>48000</v>
       </c>
       <c r="D88" s="14">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="E88" s="14">
         <v>12000</v>
       </c>
       <c r="F88" s="14">
-        <f t="shared" si="3"/>
-        <v>15600</v>
+        <f t="shared" si="4"/>
+        <v>9600</v>
       </c>
       <c r="G88" s="13">
         <v>4</v>
@@ -12352,26 +12320,23 @@
       </c>
       <c r="I88" s="13">
         <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="J88" s="13">
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>39000</v>
-      </c>
-      <c r="K88" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>54600</v>
-      </c>
+        <v>24000</v>
+      </c>
+      <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="B89" s="14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="14">
         <v>24000</v>
@@ -12383,7 +12348,7 @@
         <v>12000</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" ref="F89:F94" si="4">E89*D89</f>
+        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="G89" s="13">
@@ -12400,14 +12365,17 @@
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
         <v>12000</v>
       </c>
-      <c r="K89" s="15"/>
+      <c r="K89" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>16800</v>
+      </c>
       <c r="L89" s="15"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="B90" s="14">
         <v>3</v>
@@ -12439,17 +12407,20 @@
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
         <v>18000</v>
       </c>
-      <c r="K90" s="15"/>
+      <c r="K90" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>25200</v>
+      </c>
       <c r="L90" s="15"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B91" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" s="14">
         <v>48000</v>
@@ -12478,136 +12449,13 @@
         <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
         <v>24000</v>
       </c>
-      <c r="K91" s="15"/>
+      <c r="K91" s="15">
+        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
+        <v>33600</v>
+      </c>
       <c r="L91" s="15"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="B92" s="14">
-        <v>1</v>
-      </c>
-      <c r="C92" s="14">
-        <v>24000</v>
-      </c>
-      <c r="D92" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="E92" s="14">
-        <v>12000</v>
-      </c>
-      <c r="F92" s="14">
-        <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="G92" s="13">
-        <v>4</v>
-      </c>
-      <c r="H92" s="13">
-        <v>20</v>
-      </c>
-      <c r="I92" s="13">
-        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>600</v>
-      </c>
-      <c r="J92" s="13">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>12000</v>
-      </c>
-      <c r="K92" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>16800</v>
-      </c>
-      <c r="L92" s="15"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-    </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B93" s="14">
-        <v>3</v>
-      </c>
-      <c r="C93" s="14">
-        <v>36000</v>
-      </c>
-      <c r="D93" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="E93" s="14">
-        <v>12000</v>
-      </c>
-      <c r="F93" s="14">
-        <f t="shared" si="4"/>
-        <v>7200</v>
-      </c>
-      <c r="G93" s="13">
-        <v>4</v>
-      </c>
-      <c r="H93" s="13">
-        <v>20</v>
-      </c>
-      <c r="I93" s="13">
-        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>900</v>
-      </c>
-      <c r="J93" s="13">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>18000</v>
-      </c>
-      <c r="K93" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>25200</v>
-      </c>
-      <c r="L93" s="15"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="B94" s="14">
-        <v>8</v>
-      </c>
-      <c r="C94" s="14">
-        <v>48000</v>
-      </c>
-      <c r="D94" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="E94" s="14">
-        <v>12000</v>
-      </c>
-      <c r="F94" s="14">
-        <f t="shared" si="4"/>
-        <v>9600</v>
-      </c>
-      <c r="G94" s="13">
-        <v>4</v>
-      </c>
-      <c r="H94" s="13">
-        <v>20</v>
-      </c>
-      <c r="I94" s="13">
-        <f>Tabelle2[[#This Row],[Rep von 1 auf Max Zustand]]/Tabelle2[[#This Row],[Max Zustand]]</f>
-        <v>1200</v>
-      </c>
-      <c r="J94" s="13">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.5</f>
-        <v>24000</v>
-      </c>
-      <c r="K94" s="15">
-        <f>Tabelle2[[#This Row],[Kosten bei Kauf]]*0.7</f>
-        <v>33600</v>
-      </c>
-      <c r="L94" s="15"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\###Orbis\BookdownData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Texte\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C55B53-EC05-4EF7-BD02-15DD167BE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD46DD5-2F0B-419D-B1D8-DBF605DCBA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="8040" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="524">
   <si>
     <t>Ereignisname</t>
   </si>
@@ -1610,6 +1610,18 @@
   </si>
   <si>
     <t>Schwere Rüstung</t>
+  </si>
+  <si>
+    <t>Fotographisches Gedächtnis</t>
+  </si>
+  <si>
+    <t>Du kannst dir alles was du siehst merken</t>
+  </si>
+  <si>
+    <t>Tourette-Syndrom</t>
+  </si>
+  <si>
+    <t>Du Fluchst manchmal unkontrolliert</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1898,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Lootprofile"/>
@@ -3872,9 +3884,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3912,7 +3924,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4018,7 +4030,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4160,7 +4172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4174,14 +4186,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.31640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="45.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.86328125" customWidth="1"/>
+    <col min="6" max="6" width="45.86328125" customWidth="1"/>
+    <col min="7" max="7" width="22.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4247,7 +4259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4264,7 +4276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4281,7 +4293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4298,7 +4310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>392</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>395</v>
       </c>
@@ -4389,7 +4401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>399</v>
       </c>
@@ -4406,7 +4418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -4423,7 +4435,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>401</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>404</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>409</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>412</v>
       </c>
@@ -4491,7 +4503,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>434</v>
       </c>
@@ -4525,7 +4537,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>415</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>443</v>
       </c>
@@ -4559,7 +4571,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>424</v>
       </c>
@@ -4576,7 +4588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>419</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>444</v>
       </c>
@@ -4610,7 +4622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>426</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>428</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4689,14 +4701,14 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.31640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="11"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.31640625" style="11"/>
+    <col min="2" max="2" width="25.31640625" customWidth="1"/>
+    <col min="3" max="3" width="18.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="11" t="s">
         <v>217</v>
       </c>
@@ -4710,7 +4722,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
         <v>229</v>
       </c>
@@ -4724,7 +4736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="11" t="s">
         <v>230</v>
       </c>
@@ -4735,7 +4747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="11" t="s">
         <v>231</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>226</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="11" t="s">
         <v>243</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="11" t="s">
         <v>233</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="11" t="s">
         <v>240</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="11" t="s">
         <v>237</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="11" t="s">
         <v>242</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="11">
         <v>20.100000000000001</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="11" t="s">
         <v>248</v>
       </c>
@@ -4849,7 +4861,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="11" t="s">
         <v>251</v>
       </c>
@@ -4863,7 +4875,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="11" t="s">
         <v>254</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="11" t="s">
         <v>255</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="11" t="s">
         <v>263</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" s="11">
         <v>21.06</v>
       </c>
@@ -4919,7 +4931,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" s="11" t="s">
         <v>265</v>
       </c>
@@ -4930,7 +4942,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" s="11" t="s">
         <v>266</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" s="11" t="s">
         <v>267</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" s="11" t="s">
         <v>269</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" s="11" t="s">
         <v>270</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" s="11" t="s">
         <v>271</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" s="11" t="s">
         <v>272</v>
       </c>
@@ -4996,7 +5008,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" s="11" t="s">
         <v>268</v>
       </c>
@@ -5007,7 +5019,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" s="11" t="s">
         <v>284</v>
       </c>
@@ -5021,7 +5033,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" s="11" t="s">
         <v>285</v>
       </c>
@@ -5035,7 +5047,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" s="11" t="s">
         <v>379</v>
       </c>
@@ -5049,7 +5061,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" s="11" t="s">
         <v>290</v>
       </c>
@@ -5063,7 +5075,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" s="11" t="s">
         <v>292</v>
       </c>
@@ -5077,7 +5089,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" s="11" t="s">
         <v>296</v>
       </c>
@@ -5091,7 +5103,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" s="11" t="s">
         <v>378</v>
       </c>
@@ -5105,7 +5117,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" s="11" t="s">
         <v>228</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" s="11" t="s">
         <v>375</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" s="11" t="s">
         <v>376</v>
       </c>
@@ -5147,7 +5159,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" s="11" t="s">
         <v>377</v>
       </c>
@@ -5161,7 +5173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" s="11" t="s">
         <v>374</v>
       </c>
@@ -5175,7 +5187,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" s="11" t="s">
         <v>373</v>
       </c>
@@ -5189,7 +5201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" s="11" t="s">
         <v>372</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" s="11" t="s">
         <v>326</v>
       </c>
@@ -5217,7 +5229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" s="11" t="s">
         <v>325</v>
       </c>
@@ -5231,7 +5243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="11" t="s">
         <v>327</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" s="11" t="s">
         <v>330</v>
       </c>
@@ -5259,7 +5271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" s="11" t="s">
         <v>335</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" s="11" t="s">
         <v>340</v>
       </c>
@@ -5303,15 +5315,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEEF8A-39E8-413E-87E3-CC48CFCC21D3}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -5328,7 +5340,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5336,10 +5348,10 @@
         <v>348</v>
       </c>
       <c r="C2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>380</v>
       </c>
@@ -5347,13 +5359,13 @@
         <v>347</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5361,7 +5373,7 @@
         <v>347</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>354</v>
@@ -5370,7 +5382,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5384,7 +5396,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>350</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -5406,7 +5418,7 @@
         <v>348</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>357</v>
@@ -5415,7 +5427,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>359</v>
       </c>
@@ -5423,7 +5435,7 @@
         <v>347</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>360</v>
@@ -5432,7 +5444,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -5440,13 +5452,13 @@
         <v>348</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -5454,13 +5466,13 @@
         <v>347</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -5468,13 +5480,13 @@
         <v>348</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>368</v>
       </c>
@@ -5482,13 +5494,13 @@
         <v>348</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5496,13 +5508,13 @@
         <v>347</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>381</v>
       </c>
@@ -5510,13 +5522,13 @@
         <v>347</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>384</v>
       </c>
@@ -5524,13 +5536,13 @@
         <v>347</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>386</v>
       </c>
@@ -5538,13 +5550,13 @@
         <v>348</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>388</v>
       </c>
@@ -5552,13 +5564,13 @@
         <v>348</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -5566,10 +5578,38 @@
         <v>347</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5585,12 +5625,12 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.31640625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="11.33203125" style="1"/>
+    <col min="1" max="16384" width="11.31640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -5628,7 +5668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -5654,7 +5694,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -5680,7 +5720,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -5704,7 +5744,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -5730,7 +5770,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -5758,7 +5798,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -5786,7 +5826,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
@@ -5810,7 +5850,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -5838,7 +5878,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -5864,7 +5904,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -5890,7 +5930,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -5916,7 +5956,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -5942,7 +5982,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -5968,7 +6008,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -5994,7 +6034,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -6018,7 +6058,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6032,7 +6072,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6046,7 +6086,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6078,15 +6118,15 @@
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.31640625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" style="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.33203125" style="1"/>
+    <col min="1" max="1" width="19.6796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.31640625" style="1"/>
+    <col min="4" max="4" width="19.31640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.31640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
         <v>216</v>
       </c>
@@ -6103,7 +6143,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -6117,7 +6157,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>208</v>
       </c>
@@ -6131,7 +6171,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
@@ -6145,7 +6185,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>208</v>
       </c>
@@ -6159,7 +6199,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>200</v>
       </c>
@@ -6176,7 +6216,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
@@ -6193,7 +6233,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
         <v>200</v>
       </c>
@@ -6210,7 +6250,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
         <v>200</v>
       </c>
@@ -6227,7 +6267,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
         <v>194</v>
       </c>
@@ -6241,7 +6281,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>194</v>
       </c>
@@ -6255,7 +6295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="4" t="s">
         <v>194</v>
       </c>
@@ -6269,7 +6309,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>194</v>
       </c>
@@ -6283,7 +6323,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="4" t="s">
         <v>189</v>
       </c>
@@ -6297,7 +6337,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -6311,7 +6351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
@@ -6325,7 +6365,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>189</v>
       </c>
@@ -6339,7 +6379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
@@ -6353,7 +6393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
@@ -6367,7 +6407,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
         <v>184</v>
       </c>
@@ -6381,7 +6421,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
         <v>184</v>
       </c>
@@ -6395,7 +6435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="4" t="s">
         <v>179</v>
       </c>
@@ -6409,7 +6449,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -6423,7 +6463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>179</v>
       </c>
@@ -6437,7 +6477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -6451,7 +6491,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>174</v>
       </c>
@@ -6465,7 +6505,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A27" s="3" t="s">
         <v>174</v>
       </c>
@@ -6479,7 +6519,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A28" s="4" t="s">
         <v>174</v>
       </c>
@@ -6493,7 +6533,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
         <v>174</v>
       </c>
@@ -6507,7 +6547,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A30" s="4" t="s">
         <v>169</v>
       </c>
@@ -6521,7 +6561,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A31" s="3" t="s">
         <v>169</v>
       </c>
@@ -6535,7 +6575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A32" s="4" t="s">
         <v>169</v>
       </c>
@@ -6549,7 +6589,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A33" s="3" t="s">
         <v>169</v>
       </c>
@@ -6563,7 +6603,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="4" t="s">
         <v>167</v>
       </c>
@@ -6577,7 +6617,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A35" s="3" t="s">
         <v>162</v>
       </c>
@@ -6591,7 +6631,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A36" s="4" t="s">
         <v>162</v>
       </c>
@@ -6605,7 +6645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A37" s="3" t="s">
         <v>162</v>
       </c>
@@ -6619,7 +6659,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A38" s="4" t="s">
         <v>162</v>
       </c>
@@ -6633,7 +6673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A39" s="3" t="s">
         <v>159</v>
       </c>
@@ -6647,7 +6687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A40" s="4" t="s">
         <v>159</v>
       </c>
@@ -6661,7 +6701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -6675,7 +6715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A42" s="4" t="s">
         <v>154</v>
       </c>
@@ -6689,7 +6729,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -6703,7 +6743,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
@@ -6717,7 +6757,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A45" s="3" t="s">
         <v>152</v>
       </c>
@@ -6729,7 +6769,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A46" s="4" t="s">
         <v>152</v>
       </c>
@@ -6741,7 +6781,7 @@
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
@@ -6753,7 +6793,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A48" s="4" t="s">
         <v>152</v>
       </c>
@@ -6765,7 +6805,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A49" s="3" t="s">
         <v>152</v>
       </c>
@@ -6777,7 +6817,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A50" s="4" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +6829,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A51" s="3" t="s">
         <v>148</v>
       </c>
@@ -6803,7 +6843,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A52" s="4" t="s">
         <v>148</v>
       </c>
@@ -6817,7 +6857,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A53" s="3" t="s">
         <v>148</v>
       </c>
@@ -6831,7 +6871,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A54" s="4" t="s">
         <v>148</v>
       </c>
@@ -6845,7 +6885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A55" s="3" t="s">
         <v>141</v>
       </c>
@@ -6859,7 +6899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A56" s="4" t="s">
         <v>141</v>
       </c>
@@ -6873,7 +6913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A57" s="3" t="s">
         <v>141</v>
       </c>
@@ -6887,7 +6927,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
@@ -6901,7 +6941,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A59" s="3" t="s">
         <v>141</v>
       </c>
@@ -6915,7 +6955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A60" s="4" t="s">
         <v>141</v>
       </c>
@@ -6929,7 +6969,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A61" s="8" t="s">
         <v>137</v>
       </c>
@@ -6946,7 +6986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A62" s="6" t="s">
         <v>137</v>
       </c>
@@ -6963,7 +7003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A63" s="8" t="s">
         <v>137</v>
       </c>
@@ -6980,7 +7020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
@@ -6994,7 +7034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -7008,7 +7048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A66" s="4" t="s">
         <v>129</v>
       </c>
@@ -7022,7 +7062,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -7036,7 +7076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A68" s="4" t="s">
         <v>129</v>
       </c>
@@ -7050,7 +7090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A69" s="3" t="s">
         <v>129</v>
       </c>
@@ -7064,7 +7104,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A70" s="6" t="s">
         <v>127</v>
       </c>
@@ -7078,7 +7118,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A71" s="8" t="s">
         <v>125</v>
       </c>
@@ -7095,7 +7135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="185.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="185.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A72" s="4" t="s">
         <v>122</v>
       </c>
@@ -7109,7 +7149,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A73" s="3" t="s">
         <v>118</v>
       </c>
@@ -7123,7 +7163,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="79.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A74" s="4" t="s">
         <v>118</v>
       </c>
@@ -7137,7 +7177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A75" s="3" t="s">
         <v>118</v>
       </c>
@@ -7151,7 +7191,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A76" s="4" t="s">
         <v>115</v>
       </c>
@@ -7165,7 +7205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A77" s="3" t="s">
         <v>115</v>
       </c>
@@ -7179,7 +7219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
@@ -7193,7 +7233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A79" s="8" t="s">
         <v>109</v>
       </c>
@@ -7210,7 +7250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="53.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A80" s="6" t="s">
         <v>109</v>
       </c>
@@ -7227,7 +7267,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
@@ -7241,7 +7281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A82" s="4" t="s">
         <v>104</v>
       </c>
@@ -7255,7 +7295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A83" s="3" t="s">
         <v>104</v>
       </c>
@@ -7269,7 +7309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A84" s="4" t="s">
         <v>99</v>
       </c>
@@ -7283,7 +7323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A85" s="3" t="s">
         <v>99</v>
       </c>
@@ -7297,7 +7337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A86" s="4" t="s">
         <v>99</v>
       </c>
@@ -7311,7 +7351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -7343,16 +7383,16 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20.6796875" customWidth="1"/>
+    <col min="4" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="7" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>481</v>
       </c>
@@ -7372,7 +7412,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>475</v>
       </c>
@@ -7396,7 +7436,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -7420,7 +7460,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -7444,7 +7484,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -7468,7 +7508,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -7492,7 +7532,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>470</v>
       </c>
@@ -7516,7 +7556,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>469</v>
       </c>
@@ -7540,7 +7580,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>468</v>
       </c>
@@ -7564,7 +7604,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -7588,7 +7628,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>466</v>
       </c>
@@ -7612,7 +7652,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>465</v>
       </c>
@@ -7636,7 +7676,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>464</v>
       </c>
@@ -7660,7 +7700,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>463</v>
       </c>
@@ -7684,7 +7724,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>462</v>
       </c>
@@ -7708,7 +7748,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>461</v>
       </c>
@@ -7732,7 +7772,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>460</v>
       </c>
@@ -7756,7 +7796,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -7780,7 +7820,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -7804,7 +7844,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>457</v>
       </c>
@@ -7828,7 +7868,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>456</v>
       </c>
@@ -7852,7 +7892,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -7876,7 +7916,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>454</v>
       </c>
@@ -7900,7 +7940,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>453</v>
       </c>
@@ -7924,7 +7964,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>452</v>
       </c>
@@ -7948,7 +7988,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>451</v>
       </c>
@@ -7972,7 +8012,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>450</v>
       </c>
@@ -7996,7 +8036,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>449</v>
       </c>
@@ -8020,7 +8060,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -8044,7 +8084,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>447</v>
       </c>
@@ -8068,7 +8108,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>446</v>
       </c>
@@ -8092,7 +8132,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>445</v>
       </c>
@@ -8125,28 +8165,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B249C45-CD83-4130-ABC7-96319CC48F44}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A28" sqref="A28:XFD74"/>
+      <selection pane="topRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" outlineLevelCol="1" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="24.6796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.76953125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.31640625" style="14" customWidth="1"/>
     <col min="5" max="5" width="18" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="37.88671875" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="24.44140625" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="19.5546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.2265625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="37.86328125" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="24.453125" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="19.54296875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="24.86328125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
         <v>516</v>
       </c>
@@ -8190,7 +8230,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="14" t="s">
         <v>502</v>
       </c>
@@ -8232,7 +8272,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="14" t="s">
         <v>501</v>
       </c>
@@ -8283,7 +8323,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" s="14" t="s">
         <v>500</v>
       </c>
@@ -8334,7 +8374,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" s="14" t="s">
         <v>499</v>
       </c>
@@ -8385,7 +8425,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" s="16" t="s">
         <v>498</v>
       </c>
@@ -8436,7 +8476,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" s="16" t="s">
         <v>497</v>
       </c>
@@ -8487,7 +8527,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
         <v>496</v>
       </c>
@@ -8539,7 +8579,7 @@
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" s="16" t="s">
         <v>495</v>
       </c>
@@ -8590,7 +8630,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" s="16" t="s">
         <v>494</v>
       </c>
@@ -8641,7 +8681,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" s="16" t="s">
         <v>493</v>
       </c>
@@ -8692,7 +8732,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" s="16" t="s">
         <v>492</v>
       </c>
@@ -8743,7 +8783,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" s="16" t="s">
         <v>491</v>
       </c>
@@ -8794,7 +8834,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" s="14" t="s">
         <v>490</v>
       </c>
@@ -8845,7 +8885,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" s="14" t="s">
         <v>489</v>
       </c>
@@ -8896,7 +8936,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" s="14" t="s">
         <v>488</v>
       </c>
@@ -8947,7 +8987,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" s="14" t="s">
         <v>487</v>
       </c>
@@ -8998,7 +9038,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" s="14" t="s">
         <v>486</v>
       </c>
@@ -9049,7 +9089,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A19" s="14" t="s">
         <v>485</v>
       </c>
@@ -9100,7 +9140,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A20" s="14" t="s">
         <v>517</v>
       </c>
@@ -9139,7 +9179,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A21" s="14" t="s">
         <v>518</v>
       </c>
@@ -9178,7 +9218,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A22" s="14" t="s">
         <v>519</v>
       </c>
@@ -9217,7 +9257,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A23" s="14" t="s">
         <v>484</v>
       </c>
@@ -9268,7 +9308,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A24" s="14" t="s">
         <v>483</v>
       </c>
@@ -9319,7 +9359,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" s="14" t="s">
         <v>482</v>
       </c>
@@ -9370,7 +9410,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A26" s="14" t="s">
         <v>501</v>
       </c>
@@ -9421,7 +9461,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A27" s="14" t="s">
         <v>500</v>
       </c>
@@ -9472,7 +9512,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A28" s="16" t="s">
         <v>498</v>
       </c>
@@ -9523,7 +9563,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A29" s="16" t="s">
         <v>497</v>
       </c>
@@ -9574,7 +9614,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A30" s="16" t="s">
         <v>496</v>
       </c>
@@ -9625,7 +9665,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A31" s="16" t="s">
         <v>495</v>
       </c>
@@ -9676,7 +9716,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A32" s="16" t="s">
         <v>494</v>
       </c>
@@ -9727,7 +9767,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A33" s="16" t="s">
         <v>493</v>
       </c>
@@ -9778,7 +9818,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A34" s="16" t="s">
         <v>492</v>
       </c>
@@ -9829,7 +9869,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A35" s="16" t="s">
         <v>491</v>
       </c>
@@ -9880,7 +9920,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A36" s="14" t="s">
         <v>490</v>
       </c>
@@ -9931,7 +9971,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A37" s="14" t="s">
         <v>489</v>
       </c>
@@ -9982,7 +10022,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A38" s="14" t="s">
         <v>488</v>
       </c>
@@ -10033,7 +10073,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A39" s="14" t="s">
         <v>487</v>
       </c>
@@ -10084,7 +10124,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40" s="14" t="s">
         <v>486</v>
       </c>
@@ -10135,7 +10175,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A41" s="14" t="s">
         <v>485</v>
       </c>
@@ -10186,7 +10226,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A42" s="14" t="s">
         <v>517</v>
       </c>
@@ -10225,7 +10265,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A43" s="14" t="s">
         <v>518</v>
       </c>
@@ -10264,7 +10304,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A44" s="14" t="s">
         <v>519</v>
       </c>
@@ -10303,7 +10343,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A45" s="14" t="s">
         <v>484</v>
       </c>
@@ -10354,7 +10394,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A46" s="14" t="s">
         <v>483</v>
       </c>
@@ -10405,7 +10445,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A47" s="14" t="s">
         <v>482</v>
       </c>
@@ -10456,7 +10496,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A48" s="14" t="s">
         <v>501</v>
       </c>
@@ -10507,7 +10547,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A49" s="14" t="s">
         <v>500</v>
       </c>
@@ -10558,7 +10598,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A50" s="16" t="s">
         <v>498</v>
       </c>
@@ -10609,7 +10649,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A51" s="16" t="s">
         <v>497</v>
       </c>
@@ -10660,7 +10700,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A52" s="16" t="s">
         <v>496</v>
       </c>
@@ -10711,7 +10751,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A53" s="16" t="s">
         <v>495</v>
       </c>
@@ -10762,7 +10802,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A54" s="16" t="s">
         <v>494</v>
       </c>
@@ -10813,7 +10853,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A55" s="16" t="s">
         <v>493</v>
       </c>
@@ -10864,7 +10904,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A56" s="16" t="s">
         <v>492</v>
       </c>
@@ -10915,7 +10955,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A57" s="16" t="s">
         <v>491</v>
       </c>
@@ -10966,7 +11006,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A58" s="14" t="s">
         <v>490</v>
       </c>
@@ -11017,7 +11057,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A59" s="14" t="s">
         <v>489</v>
       </c>
@@ -11068,7 +11108,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A60" s="14" t="s">
         <v>488</v>
       </c>
@@ -11119,7 +11159,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A61" s="14" t="s">
         <v>487</v>
       </c>
@@ -11170,7 +11210,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A62" s="14" t="s">
         <v>486</v>
       </c>
@@ -11221,7 +11261,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A63" s="14" t="s">
         <v>485</v>
       </c>
@@ -11272,7 +11312,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A64" s="14" t="s">
         <v>517</v>
       </c>
@@ -11311,7 +11351,7 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A65" s="14" t="s">
         <v>518</v>
       </c>
@@ -11350,7 +11390,7 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A66" s="14" t="s">
         <v>519</v>
       </c>
@@ -11389,7 +11429,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A67" s="14" t="s">
         <v>484</v>
       </c>
@@ -11440,7 +11480,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A68" s="14" t="s">
         <v>483</v>
       </c>
@@ -11491,7 +11531,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A69" s="14" t="s">
         <v>482</v>
       </c>
@@ -11542,7 +11582,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A70" s="14" t="s">
         <v>501</v>
       </c>
@@ -11584,7 +11624,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A71" s="14" t="s">
         <v>500</v>
       </c>
@@ -11626,7 +11666,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A72" s="16" t="s">
         <v>498</v>
       </c>
@@ -11668,7 +11708,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A73" s="16" t="s">
         <v>497</v>
       </c>
@@ -11710,7 +11750,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A74" s="16" t="s">
         <v>496</v>
       </c>
@@ -11752,7 +11792,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A75" s="16" t="s">
         <v>495</v>
       </c>
@@ -11794,7 +11834,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A76" s="16" t="s">
         <v>494</v>
       </c>
@@ -11836,7 +11876,7 @@
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A77" s="16" t="s">
         <v>493</v>
       </c>
@@ -11878,7 +11918,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A78" s="16" t="s">
         <v>492</v>
       </c>
@@ -11920,7 +11960,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A79" s="16" t="s">
         <v>491</v>
       </c>
@@ -11962,7 +12002,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A80" s="14" t="s">
         <v>490</v>
       </c>
@@ -12004,7 +12044,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A81" s="14" t="s">
         <v>489</v>
       </c>
@@ -12046,7 +12086,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A82" s="14" t="s">
         <v>488</v>
       </c>
@@ -12088,7 +12128,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A83" s="14" t="s">
         <v>487</v>
       </c>
@@ -12130,7 +12170,7 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A84" s="14" t="s">
         <v>486</v>
       </c>
@@ -12172,7 +12212,7 @@
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A85" s="14" t="s">
         <v>485</v>
       </c>
@@ -12214,7 +12254,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A86" s="14" t="s">
         <v>517</v>
       </c>
@@ -12253,7 +12293,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A87" s="14" t="s">
         <v>518</v>
       </c>
@@ -12292,7 +12332,7 @@
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A88" s="14" t="s">
         <v>519</v>
       </c>
@@ -12331,7 +12371,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A89" s="14" t="s">
         <v>484</v>
       </c>
@@ -12373,7 +12413,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A90" s="14" t="s">
         <v>483</v>
       </c>
@@ -12415,7 +12455,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A91" s="14" t="s">
         <v>482</v>
       </c>

--- a/BookdownData/BookdownAllgemeinData.xlsx
+++ b/BookdownData/BookdownAllgemeinData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAsteaDropbox\Orbis Texte\BookdownData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD46DD5-2F0B-419D-B1D8-DBF605DCBA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766029B-63A7-4329-8145-32B64BF1A5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="8040" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="10065" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimelineData" sheetId="1" r:id="rId1"/>
@@ -571,15 +571,9 @@
     <t>Critmargin +1</t>
   </si>
   <si>
-    <t>Ausdauer +16</t>
-  </si>
-  <si>
     <t>Ausdauer</t>
   </si>
   <si>
-    <t>Ausdauer +12</t>
-  </si>
-  <si>
     <t>Ausdauer +8</t>
   </si>
   <si>
@@ -1622,6 +1616,12 @@
   </si>
   <si>
     <t>Du Fluchst manchmal unkontrolliert</t>
+  </si>
+  <si>
+    <t>Ausdauer +6</t>
+  </si>
+  <si>
+    <t>Ausdauer +10</t>
   </si>
 </sst>
 </file>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
@@ -4380,22 +4380,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -4403,16 +4403,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -4420,33 +4420,33 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -4454,33 +4454,33 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -4488,19 +4488,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
@@ -4508,7 +4508,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -4522,67 +4522,67 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -4590,16 +4590,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -4607,16 +4607,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -4624,16 +4624,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -4641,16 +4641,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
@@ -4710,27 +4710,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
         <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -4738,10 +4738,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -4779,13 +4779,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -4793,13 +4793,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -4807,13 +4807,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
         <v>236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>238</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -4821,13 +4821,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
         <v>242</v>
-      </c>
-      <c r="B10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" t="s">
-        <v>244</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -4838,10 +4838,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -4849,72 +4849,72 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
         <v>245</v>
-      </c>
-      <c r="C12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
         <v>254</v>
-      </c>
-      <c r="B14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.75">
@@ -4922,308 +4922,308 @@
         <v>21.06</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" t="s">
         <v>285</v>
       </c>
-      <c r="B27" t="s">
-        <v>283</v>
-      </c>
-      <c r="C27" t="s">
-        <v>287</v>
-      </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" t="s">
         <v>292</v>
       </c>
-      <c r="B30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" t="s">
         <v>295</v>
       </c>
-      <c r="C31" t="s">
-        <v>297</v>
-      </c>
       <c r="D31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" t="s">
         <v>298</v>
       </c>
-      <c r="C34" t="s">
-        <v>300</v>
-      </c>
       <c r="D34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" t="s">
         <v>316</v>
-      </c>
-      <c r="C38" t="s">
-        <v>317</v>
-      </c>
-      <c r="D38" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -5231,13 +5231,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -5245,13 +5245,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" t="s">
         <v>327</v>
-      </c>
-      <c r="B42" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" t="s">
-        <v>329</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" t="s">
         <v>330</v>
-      </c>
-      <c r="B43" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43" t="s">
-        <v>332</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -5273,30 +5273,30 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" t="s">
         <v>334</v>
       </c>
-      <c r="C44" t="s">
-        <v>336</v>
-      </c>
       <c r="D44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5317,7 +5317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEEF8A-39E8-413E-87E3-CC48CFCC21D3}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -5325,27 +5325,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
         <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -5353,263 +5353,263 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" t="s">
         <v>349</v>
-      </c>
-      <c r="B5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -6114,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.31640625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -6128,24 +6128,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -6154,12 +6154,12 @@
         <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -6168,12 +6168,12 @@
         <v>420</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -6182,12 +6182,12 @@
         <v>900</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -6196,12 +6196,12 @@
         <v>1300</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -6210,15 +6210,15 @@
         <v>200</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -6227,15 +6227,15 @@
         <v>420</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
@@ -6244,15 +6244,15 @@
         <v>900</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="66.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -6261,15 +6261,15 @@
         <v>1300</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -6278,12 +6278,12 @@
         <v>400</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -6292,12 +6292,12 @@
         <v>700</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
@@ -6306,12 +6306,12 @@
         <v>1100</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -6320,12 +6320,12 @@
         <v>1600</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -6334,12 +6334,12 @@
         <v>1000</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -6348,12 +6348,12 @@
         <v>2000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -6362,12 +6362,12 @@
         <v>3000</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="3">
         <v>6</v>
@@ -6376,12 +6376,12 @@
         <v>4000</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -6390,12 +6390,12 @@
         <v>1000</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
@@ -6404,12 +6404,12 @@
         <v>2000</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
@@ -6418,12 +6418,12 @@
         <v>3000</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B21" s="3">
         <v>6</v>
@@ -6432,12 +6432,12 @@
         <v>4000</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -6446,12 +6446,12 @@
         <v>4000</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A23" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -6460,12 +6460,12 @@
         <v>5000</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B24" s="4">
         <v>5</v>
@@ -6474,12 +6474,12 @@
         <v>6000</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A25" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
@@ -6488,12 +6488,12 @@
         <v>8000</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -6502,12 +6502,12 @@
         <v>200</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -6516,12 +6516,12 @@
         <v>420</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>176</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -6530,12 +6530,12 @@
         <v>900</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -6544,7 +6544,7 @@
         <v>1300</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>173</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
@@ -7394,27 +7394,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" s="12">
         <f t="shared" ref="B2:B32" si="0">C2/8</f>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B3" s="12">
         <f t="shared" si="0"/>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B4" s="12">
         <f t="shared" si="0"/>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B21" s="12">
         <f t="shared" si="0"/>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B25" s="12">
         <f t="shared" si="0"/>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B26" s="12">
         <f t="shared" si="0"/>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B27" s="12">
         <f t="shared" si="0"/>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B28" s="12">
         <f t="shared" si="0"/>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B29" s="12">
         <f t="shared" si="0"/>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B30" s="12">
         <f t="shared" si="0"/>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B31" s="12">
         <f t="shared" si="0"/>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B32" s="12">
         <f t="shared" si="0"/>
@@ -8188,51 +8188,51 @@
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B2" s="14">
         <v>5</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B3" s="14">
         <v>1</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B5" s="14">
         <v>0.5</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B7" s="16">
         <v>2</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B8" s="16">
         <v>3</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B9" s="16">
         <v>0.5</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B10" s="16">
         <v>1</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B11" s="16">
         <v>3</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" s="16">
         <v>5</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B13" s="16">
         <v>8</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B14" s="14">
         <v>3</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B15" s="14">
         <v>5</v>
@@ -8938,7 +8938,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B16" s="14">
         <v>7</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B17" s="14">
         <v>0.2</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B18" s="14">
         <v>0.5</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A19" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A20" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B20" s="14">
         <v>1.2</v>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A21" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B21" s="14">
         <v>3</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A22" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B22" s="14">
         <v>5</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A23" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B23" s="14">
         <v>1</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A24" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B24" s="14">
         <v>3</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B25" s="14">
         <v>8</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A26" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B26" s="14">
         <v>1</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A27" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A28" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B28" s="16">
         <v>1</v>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A29" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B29" s="16">
         <v>2</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A30" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B30" s="16">
         <v>3</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A31" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B31" s="16">
         <v>0.5</v>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A32" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A33" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B33" s="16">
         <v>3</v>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A34" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B34" s="16">
         <v>5</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A35" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B35" s="16">
         <v>8</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A36" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B36" s="14">
         <v>3</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A37" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B37" s="14">
         <v>5</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A38" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B38" s="14">
         <v>7</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A39" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B39" s="14">
         <v>0.2</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B40" s="14">
         <v>0.5</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A41" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B41" s="14">
         <v>1</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A42" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B42" s="14">
         <v>1.2</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A43" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B43" s="14">
         <v>3</v>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A44" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B44" s="14">
         <v>5</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A45" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B45" s="14">
         <v>1</v>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A46" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B46" s="14">
         <v>3</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A47" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B47" s="14">
         <v>8</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A48" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B48" s="14">
         <v>1</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A49" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B49" s="14">
         <v>2</v>
@@ -10600,7 +10600,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A50" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B50" s="16">
         <v>1</v>
@@ -10651,7 +10651,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A51" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B51" s="16">
         <v>2</v>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A52" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B52" s="16">
         <v>3</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A53" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B53" s="16">
         <v>0.5</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A54" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B54" s="16">
         <v>1</v>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A55" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B55" s="16">
         <v>3</v>
@@ -10906,7 +10906,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A56" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B56" s="16">
         <v>5</v>
@@ -10957,7 +10957,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A57" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B57" s="16">
         <v>8</v>
@@ -11008,7 +11008,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A58" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B58" s="14">
         <v>3</v>
@@ -11059,7 +11059,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A59" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B59" s="14">
         <v>5</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A60" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="14">
         <v>7</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A61" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B61" s="14">
         <v>0.2</v>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A62" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B62" s="14">
         <v>0.5</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A63" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B63" s="14">
         <v>1</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A64" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B64" s="14">
         <v>1.2</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A65" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B65" s="14">
         <v>3</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A66" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B66" s="14">
         <v>5</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A67" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B67" s="14">
         <v>1</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A68" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B68" s="14">
         <v>3</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A69" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B69" s="14">
         <v>8</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A70" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B70" s="14">
         <v>1</v>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A71" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B71" s="14">
         <v>2</v>
@@ -11668,7 +11668,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A72" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B72" s="16">
         <v>1</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A73" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B73" s="16">
         <v>2</v>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A74" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B74" s="16">
         <v>3</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A75" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B75" s="16">
         <v>0.5</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A76" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B76" s="16">
         <v>1</v>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A77" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B77" s="16">
         <v>3</v>
@@ -11920,7 +11920,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A78" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B78" s="16">
         <v>5</v>
@@ -11962,7 +11962,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A79" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B79" s="16">
         <v>8</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A80" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B80" s="14">
         <v>3</v>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A81" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B81" s="14">
         <v>5</v>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A82" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B82" s="14">
         <v>7</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A83" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B83" s="14">
         <v>0.2</v>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A84" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B84" s="14">
         <v>0.5</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A85" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B85" s="14">
         <v>1</v>
@@ -12256,7 +12256,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A86" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B86" s="14">
         <v>1.2</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A87" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B87" s="14">
         <v>3</v>
@@ -12334,7 +12334,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A88" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B88" s="14">
         <v>5</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A89" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B89" s="14">
         <v>1</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A90" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B90" s="14">
         <v>3</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A91" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B91" s="14">
         <v>8</v>
